--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="687">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -2070,6 +2070,12 @@
   <si>
     <t>['19', '21', '76']</t>
   </si>
+  <si>
+    <t>['16', '24']</t>
+  </si>
+  <si>
+    <t>['59', '109']</t>
+  </si>
 </sst>
 </file>
 
@@ -2430,7 +2436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP516"/>
+  <dimension ref="A1:BP518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3179,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -5448,7 +5454,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ15">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -7096,7 +7102,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ23">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR23">
         <v>1.42</v>
@@ -8741,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ31">
         <v>0.83</v>
@@ -10389,7 +10395,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ39">
         <v>0.53</v>
@@ -12040,7 +12046,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ47">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR47">
         <v>1.86</v>
@@ -12243,7 +12249,7 @@
         <v>2</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ48">
         <v>0.9399999999999999</v>
@@ -16363,7 +16369,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ68">
         <v>0.88</v>
@@ -16778,7 +16784,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR70">
         <v>1.18</v>
@@ -18014,7 +18020,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ76">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR76">
         <v>1.96</v>
@@ -19456,7 +19462,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ83">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR83">
         <v>1.98</v>
@@ -20074,7 +20080,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ86">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR86">
         <v>1.49</v>
@@ -20895,7 +20901,7 @@
         <v>0</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ90">
         <v>1.1</v>
@@ -21101,7 +21107,7 @@
         <v>2.33</v>
       </c>
       <c r="AP91">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ91">
         <v>1.39</v>
@@ -23779,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="AP104">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ104">
         <v>0.71</v>
@@ -23988,7 +23994,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ105">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR105">
         <v>1.76</v>
@@ -26457,7 +26463,7 @@
         <v>1</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ117">
         <v>1.35</v>
@@ -27693,10 +27699,10 @@
         <v>1.6</v>
       </c>
       <c r="AP123">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ123">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR123">
         <v>2.06</v>
@@ -29135,7 +29141,7 @@
         <v>0.25</v>
       </c>
       <c r="AP130">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ130">
         <v>1.05</v>
@@ -29756,7 +29762,7 @@
         <v>1</v>
       </c>
       <c r="AQ133">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR133">
         <v>1.89</v>
@@ -31195,7 +31201,7 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ140">
         <v>0.83</v>
@@ -31404,7 +31410,7 @@
         <v>1</v>
       </c>
       <c r="AQ141">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR141">
         <v>1.56</v>
@@ -32434,7 +32440,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ146">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR146">
         <v>1.66</v>
@@ -34079,7 +34085,7 @@
         <v>1.33</v>
       </c>
       <c r="AP154">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ154">
         <v>0.9399999999999999</v>
@@ -36963,7 +36969,7 @@
         <v>2.5</v>
       </c>
       <c r="AP168">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ168">
         <v>1.32</v>
@@ -37172,7 +37178,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ169">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR169">
         <v>1.32</v>
@@ -37996,7 +38002,7 @@
         <v>1</v>
       </c>
       <c r="AQ173">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR173">
         <v>1.72</v>
@@ -39644,7 +39650,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ181">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR181">
         <v>1.51</v>
@@ -40877,10 +40883,10 @@
         <v>1.5</v>
       </c>
       <c r="AP187">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ187">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR187">
         <v>1.79</v>
@@ -44588,7 +44594,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ205">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR205">
         <v>1.81</v>
@@ -48087,7 +48093,7 @@
         <v>2.17</v>
       </c>
       <c r="AP222">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ222">
         <v>1.56</v>
@@ -48293,7 +48299,7 @@
         <v>0.5</v>
       </c>
       <c r="AP223">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ223">
         <v>0.47</v>
@@ -50147,7 +50153,7 @@
         <v>0.29</v>
       </c>
       <c r="AP232">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ232">
         <v>0.53</v>
@@ -50974,7 +50980,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ236">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR236">
         <v>1.32</v>
@@ -51386,7 +51392,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ238">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR238">
         <v>1.43</v>
@@ -51795,7 +51801,7 @@
         <v>1.71</v>
       </c>
       <c r="AP240">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ240">
         <v>1.83</v>
@@ -54888,7 +54894,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ255">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR255">
         <v>1.22</v>
@@ -56330,7 +56336,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ262">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR262">
         <v>1.79</v>
@@ -59623,7 +59629,7 @@
         <v>0.44</v>
       </c>
       <c r="AP278">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ278">
         <v>0.47</v>
@@ -60241,7 +60247,7 @@
         <v>1.33</v>
       </c>
       <c r="AP281">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ281">
         <v>1.56</v>
@@ -62301,7 +62307,7 @@
         <v>1.27</v>
       </c>
       <c r="AP291">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ291">
         <v>0.9399999999999999</v>
@@ -63125,7 +63131,7 @@
         <v>0.82</v>
       </c>
       <c r="AP295">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ295">
         <v>0.82</v>
@@ -66012,7 +66018,7 @@
         <v>1</v>
       </c>
       <c r="AQ309">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR309">
         <v>1.72</v>
@@ -70132,7 +70138,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ329">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR329">
         <v>1.23</v>
@@ -70544,7 +70550,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ331">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR331">
         <v>1.65</v>
@@ -70953,7 +70959,7 @@
         <v>1.8</v>
       </c>
       <c r="AP333">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ333">
         <v>1.83</v>
@@ -74043,7 +74049,7 @@
         <v>1.5</v>
       </c>
       <c r="AP348">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ348">
         <v>1.33</v>
@@ -77136,7 +77142,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ363">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR363">
         <v>1.57</v>
@@ -77545,7 +77551,7 @@
         <v>0.77</v>
       </c>
       <c r="AP365">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ365">
         <v>0.65</v>
@@ -77754,7 +77760,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ366">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR366">
         <v>1.16</v>
@@ -82080,7 +82086,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ387">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR387">
         <v>1.75</v>
@@ -82283,7 +82289,7 @@
         <v>1.54</v>
       </c>
       <c r="AP388">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ388">
         <v>1.5</v>
@@ -82904,7 +82910,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ391">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR391">
         <v>1.65</v>
@@ -85376,7 +85382,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ403">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR403">
         <v>1.39</v>
@@ -86815,7 +86821,7 @@
         <v>1.21</v>
       </c>
       <c r="AP410">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ410">
         <v>1.18</v>
@@ -88875,7 +88881,7 @@
         <v>0.86</v>
       </c>
       <c r="AP420">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ420">
         <v>0.9399999999999999</v>
@@ -89493,7 +89499,7 @@
         <v>2.14</v>
       </c>
       <c r="AP423">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ423">
         <v>2.06</v>
@@ -95882,7 +95888,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ454">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR454">
         <v>1.35</v>
@@ -96085,7 +96091,7 @@
         <v>2.13</v>
       </c>
       <c r="AP455">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ455">
         <v>1.94</v>
@@ -97321,7 +97327,7 @@
         <v>0.73</v>
       </c>
       <c r="AP461">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ461">
         <v>0.65</v>
@@ -97942,7 +97948,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ464">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR464">
         <v>1.63</v>
@@ -98766,7 +98772,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ468">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AR468">
         <v>1.64</v>
@@ -100002,7 +100008,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ474">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR474">
         <v>1.58</v>
@@ -100617,7 +100623,7 @@
         <v>0.8</v>
       </c>
       <c r="AP477">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ477">
         <v>0.88</v>
@@ -103501,7 +103507,7 @@
         <v>0.5</v>
       </c>
       <c r="AP491">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AQ491">
         <v>0.47</v>
@@ -105355,7 +105361,7 @@
         <v>1.43</v>
       </c>
       <c r="AP500">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AQ500">
         <v>1.39</v>
@@ -105564,7 +105570,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ501">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AR501">
         <v>1.48</v>
@@ -105767,7 +105773,7 @@
         <v>1.59</v>
       </c>
       <c r="AP502">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="AQ502">
         <v>1.56</v>
@@ -105976,7 +105982,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ503">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="AR503">
         <v>1.52</v>
@@ -106797,7 +106803,7 @@
         <v>1.77</v>
       </c>
       <c r="AP507">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AQ507">
         <v>1.7</v>
@@ -107415,7 +107421,7 @@
         <v>1.89</v>
       </c>
       <c r="AP510">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="AQ510">
         <v>1.86</v>
@@ -107624,7 +107630,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ511">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="AR511">
         <v>1.46</v>
@@ -107830,7 +107836,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ512">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AR512">
         <v>1.39</v>
@@ -108033,7 +108039,7 @@
         <v>1.43</v>
       </c>
       <c r="AP513">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AQ513">
         <v>1.39</v>
@@ -108242,7 +108248,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ514">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AR514">
         <v>1.5</v>
@@ -108730,6 +108736,418 @@
       </c>
       <c r="BP516">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="517" spans="1:68">
+      <c r="A517" s="1">
+        <v>516</v>
+      </c>
+      <c r="B517">
+        <v>7744100</v>
+      </c>
+      <c r="C517" t="s">
+        <v>68</v>
+      </c>
+      <c r="D517" t="s">
+        <v>69</v>
+      </c>
+      <c r="E517" s="2">
+        <v>45619.8125</v>
+      </c>
+      <c r="F517">
+        <v>0</v>
+      </c>
+      <c r="G517" t="s">
+        <v>94</v>
+      </c>
+      <c r="H517" t="s">
+        <v>96</v>
+      </c>
+      <c r="I517">
+        <v>0</v>
+      </c>
+      <c r="J517">
+        <v>2</v>
+      </c>
+      <c r="K517">
+        <v>2</v>
+      </c>
+      <c r="L517">
+        <v>0</v>
+      </c>
+      <c r="M517">
+        <v>2</v>
+      </c>
+      <c r="N517">
+        <v>2</v>
+      </c>
+      <c r="O517" t="s">
+        <v>104</v>
+      </c>
+      <c r="P517" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q517">
+        <v>2.75</v>
+      </c>
+      <c r="R517">
+        <v>2.3</v>
+      </c>
+      <c r="S517">
+        <v>3.6</v>
+      </c>
+      <c r="T517">
+        <v>1.33</v>
+      </c>
+      <c r="U517">
+        <v>3.25</v>
+      </c>
+      <c r="V517">
+        <v>2.63</v>
+      </c>
+      <c r="W517">
+        <v>1.44</v>
+      </c>
+      <c r="X517">
+        <v>6.5</v>
+      </c>
+      <c r="Y517">
+        <v>1.11</v>
+      </c>
+      <c r="Z517">
+        <v>2.07</v>
+      </c>
+      <c r="AA517">
+        <v>3.28</v>
+      </c>
+      <c r="AB517">
+        <v>2.94</v>
+      </c>
+      <c r="AC517">
+        <v>1.03</v>
+      </c>
+      <c r="AD517">
+        <v>13</v>
+      </c>
+      <c r="AE517">
+        <v>1.24</v>
+      </c>
+      <c r="AF517">
+        <v>4.2</v>
+      </c>
+      <c r="AG517">
+        <v>1.64</v>
+      </c>
+      <c r="AH517">
+        <v>2.25</v>
+      </c>
+      <c r="AI517">
+        <v>1.57</v>
+      </c>
+      <c r="AJ517">
+        <v>2.25</v>
+      </c>
+      <c r="AK517">
+        <v>1.38</v>
+      </c>
+      <c r="AL517">
+        <v>1.25</v>
+      </c>
+      <c r="AM517">
+        <v>1.7</v>
+      </c>
+      <c r="AN517">
+        <v>1.46</v>
+      </c>
+      <c r="AO517">
+        <v>1.42</v>
+      </c>
+      <c r="AP517">
+        <v>1.42</v>
+      </c>
+      <c r="AQ517">
+        <v>1.46</v>
+      </c>
+      <c r="AR517">
+        <v>1.42</v>
+      </c>
+      <c r="AS517">
+        <v>1.51</v>
+      </c>
+      <c r="AT517">
+        <v>2.93</v>
+      </c>
+      <c r="AU517">
+        <v>8</v>
+      </c>
+      <c r="AV517">
+        <v>4</v>
+      </c>
+      <c r="AW517">
+        <v>10</v>
+      </c>
+      <c r="AX517">
+        <v>1</v>
+      </c>
+      <c r="AY517">
+        <v>27</v>
+      </c>
+      <c r="AZ517">
+        <v>10</v>
+      </c>
+      <c r="BA517">
+        <v>13</v>
+      </c>
+      <c r="BB517">
+        <v>5</v>
+      </c>
+      <c r="BC517">
+        <v>18</v>
+      </c>
+      <c r="BD517">
+        <v>1.84</v>
+      </c>
+      <c r="BE517">
+        <v>6.1</v>
+      </c>
+      <c r="BF517">
+        <v>2.08</v>
+      </c>
+      <c r="BG517">
+        <v>1.36</v>
+      </c>
+      <c r="BH517">
+        <v>2.8</v>
+      </c>
+      <c r="BI517">
+        <v>1.62</v>
+      </c>
+      <c r="BJ517">
+        <v>2.12</v>
+      </c>
+      <c r="BK517">
+        <v>2</v>
+      </c>
+      <c r="BL517">
+        <v>1.7</v>
+      </c>
+      <c r="BM517">
+        <v>2.55</v>
+      </c>
+      <c r="BN517">
+        <v>1.44</v>
+      </c>
+      <c r="BO517">
+        <v>3.4</v>
+      </c>
+      <c r="BP517">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="518" spans="1:68">
+      <c r="A518" s="1">
+        <v>517</v>
+      </c>
+      <c r="B518">
+        <v>7744101</v>
+      </c>
+      <c r="C518" t="s">
+        <v>68</v>
+      </c>
+      <c r="D518" t="s">
+        <v>69</v>
+      </c>
+      <c r="E518" s="2">
+        <v>45620.02083333334</v>
+      </c>
+      <c r="F518">
+        <v>0</v>
+      </c>
+      <c r="G518" t="s">
+        <v>72</v>
+      </c>
+      <c r="H518" t="s">
+        <v>92</v>
+      </c>
+      <c r="I518">
+        <v>0</v>
+      </c>
+      <c r="J518">
+        <v>0</v>
+      </c>
+      <c r="K518">
+        <v>0</v>
+      </c>
+      <c r="L518">
+        <v>1</v>
+      </c>
+      <c r="M518">
+        <v>2</v>
+      </c>
+      <c r="N518">
+        <v>3</v>
+      </c>
+      <c r="O518" t="s">
+        <v>202</v>
+      </c>
+      <c r="P518" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q518">
+        <v>2.5</v>
+      </c>
+      <c r="R518">
+        <v>2.2</v>
+      </c>
+      <c r="S518">
+        <v>4.33</v>
+      </c>
+      <c r="T518">
+        <v>1.36</v>
+      </c>
+      <c r="U518">
+        <v>3</v>
+      </c>
+      <c r="V518">
+        <v>2.75</v>
+      </c>
+      <c r="W518">
+        <v>1.4</v>
+      </c>
+      <c r="X518">
+        <v>7</v>
+      </c>
+      <c r="Y518">
+        <v>1.1</v>
+      </c>
+      <c r="Z518">
+        <v>1.91</v>
+      </c>
+      <c r="AA518">
+        <v>3.18</v>
+      </c>
+      <c r="AB518">
+        <v>3.44</v>
+      </c>
+      <c r="AC518">
+        <v>1.04</v>
+      </c>
+      <c r="AD518">
+        <v>13</v>
+      </c>
+      <c r="AE518">
+        <v>1.28</v>
+      </c>
+      <c r="AF518">
+        <v>3.75</v>
+      </c>
+      <c r="AG518">
+        <v>1.92</v>
+      </c>
+      <c r="AH518">
+        <v>1.96</v>
+      </c>
+      <c r="AI518">
+        <v>1.75</v>
+      </c>
+      <c r="AJ518">
+        <v>2</v>
+      </c>
+      <c r="AK518">
+        <v>1.26</v>
+      </c>
+      <c r="AL518">
+        <v>1.24</v>
+      </c>
+      <c r="AM518">
+        <v>1.92</v>
+      </c>
+      <c r="AN518">
+        <v>1.89</v>
+      </c>
+      <c r="AO518">
+        <v>1.64</v>
+      </c>
+      <c r="AP518">
+        <v>1.84</v>
+      </c>
+      <c r="AQ518">
+        <v>1.68</v>
+      </c>
+      <c r="AR518">
+        <v>1.66</v>
+      </c>
+      <c r="AS518">
+        <v>1.44</v>
+      </c>
+      <c r="AT518">
+        <v>3.1</v>
+      </c>
+      <c r="AU518">
+        <v>11</v>
+      </c>
+      <c r="AV518">
+        <v>8</v>
+      </c>
+      <c r="AW518">
+        <v>9</v>
+      </c>
+      <c r="AX518">
+        <v>3</v>
+      </c>
+      <c r="AY518">
+        <v>28</v>
+      </c>
+      <c r="AZ518">
+        <v>15</v>
+      </c>
+      <c r="BA518">
+        <v>11</v>
+      </c>
+      <c r="BB518">
+        <v>4</v>
+      </c>
+      <c r="BC518">
+        <v>15</v>
+      </c>
+      <c r="BD518">
+        <v>1.68</v>
+      </c>
+      <c r="BE518">
+        <v>6.5</v>
+      </c>
+      <c r="BF518">
+        <v>2.25</v>
+      </c>
+      <c r="BG518">
+        <v>1.2</v>
+      </c>
+      <c r="BH518">
+        <v>3.9</v>
+      </c>
+      <c r="BI518">
+        <v>1.37</v>
+      </c>
+      <c r="BJ518">
+        <v>2.8</v>
+      </c>
+      <c r="BK518">
+        <v>1.61</v>
+      </c>
+      <c r="BL518">
+        <v>2.15</v>
+      </c>
+      <c r="BM518">
+        <v>1.97</v>
+      </c>
+      <c r="BN518">
+        <v>1.72</v>
+      </c>
+      <c r="BO518">
+        <v>2.45</v>
+      </c>
+      <c r="BP518">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="688">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -2439,7 +2439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP520"/>
+  <dimension ref="A1:BP522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3191,7 +3191,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ4">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AQ7">
         <v>0.82</v>
@@ -5457,7 +5457,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ15">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ16">
         <v>2.06</v>
@@ -7105,7 +7105,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ23">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR23">
         <v>1.42</v>
@@ -9162,7 +9162,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AQ33">
         <v>1.47</v>
@@ -12049,7 +12049,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ47">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR47">
         <v>1.86</v>
@@ -13694,7 +13694,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ55">
         <v>0.65</v>
@@ -15136,7 +15136,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AQ62">
         <v>0.9399999999999999</v>
@@ -16787,7 +16787,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ70">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
         <v>1.18</v>
@@ -18020,10 +18020,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AQ76">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR76">
         <v>1.96</v>
@@ -19462,10 +19462,10 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ83">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR83">
         <v>1.98</v>
@@ -20083,7 +20083,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ86">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR86">
         <v>1.49</v>
@@ -23997,7 +23997,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ105">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR105">
         <v>1.76</v>
@@ -27705,7 +27705,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ123">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR123">
         <v>2.06</v>
@@ -28320,7 +28320,7 @@
         <v>0</v>
       </c>
       <c r="AP126">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ126">
         <v>0.47</v>
@@ -28732,7 +28732,7 @@
         <v>0.8</v>
       </c>
       <c r="AP128">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AQ128">
         <v>0.9399999999999999</v>
@@ -29765,7 +29765,7 @@
         <v>1</v>
       </c>
       <c r="AQ133">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR133">
         <v>1.89</v>
@@ -31413,7 +31413,7 @@
         <v>1</v>
       </c>
       <c r="AQ141">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR141">
         <v>1.56</v>
@@ -32443,7 +32443,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ146">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR146">
         <v>1.66</v>
@@ -32646,7 +32646,7 @@
         <v>2</v>
       </c>
       <c r="AP147">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AQ147">
         <v>1.94</v>
@@ -36766,7 +36766,7 @@
         <v>1.83</v>
       </c>
       <c r="AP167">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ167">
         <v>1.33</v>
@@ -37181,7 +37181,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ169">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR169">
         <v>1.32</v>
@@ -37590,7 +37590,7 @@
         <v>2.17</v>
       </c>
       <c r="AP171">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AQ171">
         <v>2.06</v>
@@ -38005,7 +38005,7 @@
         <v>1</v>
       </c>
       <c r="AQ173">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR173">
         <v>1.72</v>
@@ -39653,7 +39653,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ181">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR181">
         <v>1.51</v>
@@ -40889,7 +40889,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ187">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR187">
         <v>1.79</v>
@@ -43976,7 +43976,7 @@
         <v>1.5</v>
       </c>
       <c r="AP202">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AQ202">
         <v>1.83</v>
@@ -44597,7 +44597,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ205">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR205">
         <v>1.81</v>
@@ -45624,7 +45624,7 @@
         <v>1.5</v>
       </c>
       <c r="AP210">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ210">
         <v>1.5</v>
@@ -47890,7 +47890,7 @@
         <v>0.33</v>
       </c>
       <c r="AP221">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ221">
         <v>0.53</v>
@@ -50983,7 +50983,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ236">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR236">
         <v>1.32</v>
@@ -51395,7 +51395,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ238">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR238">
         <v>1.43</v>
@@ -52628,7 +52628,7 @@
         <v>1</v>
       </c>
       <c r="AP244">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AQ244">
         <v>1.5</v>
@@ -54482,7 +54482,7 @@
         <v>0.63</v>
       </c>
       <c r="AP253">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ253">
         <v>0.53</v>
@@ -54897,7 +54897,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ255">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR255">
         <v>1.22</v>
@@ -56339,7 +56339,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ262">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR262">
         <v>1.79</v>
@@ -56954,7 +56954,7 @@
         <v>1.43</v>
       </c>
       <c r="AP265">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ265">
         <v>0.95</v>
@@ -58190,7 +58190,7 @@
         <v>0.88</v>
       </c>
       <c r="AP271">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AQ271">
         <v>0.65</v>
@@ -65606,7 +65606,7 @@
         <v>1.22</v>
       </c>
       <c r="AP307">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ307">
         <v>1.5</v>
@@ -66430,7 +66430,7 @@
         <v>0.8</v>
       </c>
       <c r="AP311">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AQ311">
         <v>1.35</v>
@@ -66639,7 +66639,7 @@
         <v>1</v>
       </c>
       <c r="AQ312">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR312">
         <v>1.72</v>
@@ -68284,7 +68284,7 @@
         <v>1.3</v>
       </c>
       <c r="AP320">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ320">
         <v>1.47</v>
@@ -69523,7 +69523,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ326">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR326">
         <v>1.23</v>
@@ -70553,7 +70553,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ331">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR331">
         <v>1.65</v>
@@ -73228,7 +73228,7 @@
         <v>1.17</v>
       </c>
       <c r="AP344">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ344">
         <v>0.9399999999999999</v>
@@ -74464,7 +74464,7 @@
         <v>1</v>
       </c>
       <c r="AP350">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AQ350">
         <v>0.95</v>
@@ -76936,7 +76936,7 @@
         <v>1</v>
       </c>
       <c r="AP362">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ362">
         <v>0.83</v>
@@ -77145,7 +77145,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ363">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR363">
         <v>1.57</v>
@@ -77351,7 +77351,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ364">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR364">
         <v>1.16</v>
@@ -79408,7 +79408,7 @@
         <v>0.83</v>
       </c>
       <c r="AP374">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ374">
         <v>1.05</v>
@@ -80438,7 +80438,7 @@
         <v>0.75</v>
       </c>
       <c r="AP379">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AQ379">
         <v>0.88</v>
@@ -82089,7 +82089,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ387">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR387">
         <v>1.75</v>
@@ -82707,7 +82707,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ390">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR390">
         <v>1.65</v>
@@ -83940,7 +83940,7 @@
         <v>1</v>
       </c>
       <c r="AP396">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AQ396">
         <v>0.71</v>
@@ -85385,7 +85385,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ403">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR403">
         <v>1.39</v>
@@ -86412,7 +86412,7 @@
         <v>1.5</v>
       </c>
       <c r="AP408">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ408">
         <v>1.5</v>
@@ -87648,7 +87648,7 @@
         <v>1.07</v>
       </c>
       <c r="AP414">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AQ414">
         <v>1.05</v>
@@ -91768,7 +91768,7 @@
         <v>1.67</v>
       </c>
       <c r="AP434">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ434">
         <v>1.32</v>
@@ -95476,7 +95476,7 @@
         <v>1.33</v>
       </c>
       <c r="AP452">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AQ452">
         <v>1.18</v>
@@ -95685,7 +95685,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ453">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR453">
         <v>1.35</v>
@@ -97333,7 +97333,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ461">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR461">
         <v>1.63</v>
@@ -99393,7 +99393,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ471">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AR471">
         <v>1.64</v>
@@ -100011,7 +100011,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ474">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR474">
         <v>1.58</v>
@@ -100214,7 +100214,7 @@
         <v>1</v>
       </c>
       <c r="AP475">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ475">
         <v>0.9399999999999999</v>
@@ -101656,7 +101656,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP482">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AQ482">
         <v>1.05</v>
@@ -104952,7 +104952,7 @@
         <v>1.47</v>
       </c>
       <c r="AP498">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AQ498">
         <v>1.39</v>
@@ -105158,7 +105158,7 @@
         <v>1.5</v>
       </c>
       <c r="AP499">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ499">
         <v>1.43</v>
@@ -105776,7 +105776,7 @@
         <v>1.59</v>
       </c>
       <c r="AP502">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AQ502">
         <v>1.56</v>
@@ -105985,7 +105985,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ503">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AR503">
         <v>1.52</v>
@@ -106397,7 +106397,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ505">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR505">
         <v>1.3</v>
@@ -106603,7 +106603,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ506">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AR506">
         <v>1.44</v>
@@ -107424,7 +107424,7 @@
         <v>1.89</v>
       </c>
       <c r="AP510">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AQ510">
         <v>1.86</v>
@@ -107633,7 +107633,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ511">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AR511">
         <v>1.46</v>
@@ -108454,7 +108454,7 @@
         <v>1.44</v>
       </c>
       <c r="AP515">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ515">
         <v>1.43</v>
@@ -108869,7 +108869,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ517">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AR517">
         <v>1.42</v>
@@ -109075,7 +109075,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ518">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AR518">
         <v>1.66</v>
@@ -109278,7 +109278,7 @@
         <v>1.24</v>
       </c>
       <c r="AP519">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AQ519">
         <v>1.21</v>
@@ -109484,7 +109484,7 @@
         <v>1.5</v>
       </c>
       <c r="AP520">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AQ520">
         <v>1.46</v>
@@ -109563,6 +109563,418 @@
       </c>
       <c r="BP520">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="521" spans="1:68">
+      <c r="A521" s="1">
+        <v>520</v>
+      </c>
+      <c r="B521">
+        <v>7754136</v>
+      </c>
+      <c r="C521" t="s">
+        <v>68</v>
+      </c>
+      <c r="D521" t="s">
+        <v>69</v>
+      </c>
+      <c r="E521" s="2">
+        <v>45626.875</v>
+      </c>
+      <c r="F521">
+        <v>0</v>
+      </c>
+      <c r="G521" t="s">
+        <v>75</v>
+      </c>
+      <c r="H521" t="s">
+        <v>96</v>
+      </c>
+      <c r="I521">
+        <v>0</v>
+      </c>
+      <c r="J521">
+        <v>0</v>
+      </c>
+      <c r="K521">
+        <v>0</v>
+      </c>
+      <c r="L521">
+        <v>0</v>
+      </c>
+      <c r="M521">
+        <v>1</v>
+      </c>
+      <c r="N521">
+        <v>1</v>
+      </c>
+      <c r="O521" t="s">
+        <v>104</v>
+      </c>
+      <c r="P521" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q521">
+        <v>2.4</v>
+      </c>
+      <c r="R521">
+        <v>2.25</v>
+      </c>
+      <c r="S521">
+        <v>4.5</v>
+      </c>
+      <c r="T521">
+        <v>1.36</v>
+      </c>
+      <c r="U521">
+        <v>3</v>
+      </c>
+      <c r="V521">
+        <v>2.63</v>
+      </c>
+      <c r="W521">
+        <v>1.44</v>
+      </c>
+      <c r="X521">
+        <v>7</v>
+      </c>
+      <c r="Y521">
+        <v>1.1</v>
+      </c>
+      <c r="Z521">
+        <v>1.85</v>
+      </c>
+      <c r="AA521">
+        <v>3.8</v>
+      </c>
+      <c r="AB521">
+        <v>4.1</v>
+      </c>
+      <c r="AC521">
+        <v>1.04</v>
+      </c>
+      <c r="AD521">
+        <v>13</v>
+      </c>
+      <c r="AE521">
+        <v>1.26</v>
+      </c>
+      <c r="AF521">
+        <v>4</v>
+      </c>
+      <c r="AG521">
+        <v>1.75</v>
+      </c>
+      <c r="AH521">
+        <v>1.95</v>
+      </c>
+      <c r="AI521">
+        <v>1.7</v>
+      </c>
+      <c r="AJ521">
+        <v>2.05</v>
+      </c>
+      <c r="AK521">
+        <v>1.25</v>
+      </c>
+      <c r="AL521">
+        <v>1.22</v>
+      </c>
+      <c r="AM521">
+        <v>1.98</v>
+      </c>
+      <c r="AN521">
+        <v>1.58</v>
+      </c>
+      <c r="AO521">
+        <v>1.46</v>
+      </c>
+      <c r="AP521">
+        <v>1.54</v>
+      </c>
+      <c r="AQ521">
+        <v>1.5</v>
+      </c>
+      <c r="AR521">
+        <v>1.47</v>
+      </c>
+      <c r="AS521">
+        <v>1.49</v>
+      </c>
+      <c r="AT521">
+        <v>2.96</v>
+      </c>
+      <c r="AU521">
+        <v>4</v>
+      </c>
+      <c r="AV521">
+        <v>2</v>
+      </c>
+      <c r="AW521">
+        <v>4</v>
+      </c>
+      <c r="AX521">
+        <v>3</v>
+      </c>
+      <c r="AY521">
+        <v>10</v>
+      </c>
+      <c r="AZ521">
+        <v>9</v>
+      </c>
+      <c r="BA521">
+        <v>5</v>
+      </c>
+      <c r="BB521">
+        <v>2</v>
+      </c>
+      <c r="BC521">
+        <v>7</v>
+      </c>
+      <c r="BD521">
+        <v>1.47</v>
+      </c>
+      <c r="BE521">
+        <v>6.75</v>
+      </c>
+      <c r="BF521">
+        <v>2.8</v>
+      </c>
+      <c r="BG521">
+        <v>1.3</v>
+      </c>
+      <c r="BH521">
+        <v>3.1</v>
+      </c>
+      <c r="BI521">
+        <v>1.52</v>
+      </c>
+      <c r="BJ521">
+        <v>2.32</v>
+      </c>
+      <c r="BK521">
+        <v>1.85</v>
+      </c>
+      <c r="BL521">
+        <v>1.83</v>
+      </c>
+      <c r="BM521">
+        <v>2.33</v>
+      </c>
+      <c r="BN521">
+        <v>1.52</v>
+      </c>
+      <c r="BO521">
+        <v>3</v>
+      </c>
+      <c r="BP521">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="522" spans="1:68">
+      <c r="A522" s="1">
+        <v>521</v>
+      </c>
+      <c r="B522">
+        <v>7754137</v>
+      </c>
+      <c r="C522" t="s">
+        <v>68</v>
+      </c>
+      <c r="D522" t="s">
+        <v>69</v>
+      </c>
+      <c r="E522" s="2">
+        <v>45627</v>
+      </c>
+      <c r="F522">
+        <v>0</v>
+      </c>
+      <c r="G522" t="s">
+        <v>84</v>
+      </c>
+      <c r="H522" t="s">
+        <v>92</v>
+      </c>
+      <c r="I522">
+        <v>0</v>
+      </c>
+      <c r="J522">
+        <v>0</v>
+      </c>
+      <c r="K522">
+        <v>0</v>
+      </c>
+      <c r="L522">
+        <v>1</v>
+      </c>
+      <c r="M522">
+        <v>0</v>
+      </c>
+      <c r="N522">
+        <v>1</v>
+      </c>
+      <c r="O522" t="s">
+        <v>244</v>
+      </c>
+      <c r="P522" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q522">
+        <v>2.4</v>
+      </c>
+      <c r="R522">
+        <v>2.3</v>
+      </c>
+      <c r="S522">
+        <v>4.33</v>
+      </c>
+      <c r="T522">
+        <v>1.33</v>
+      </c>
+      <c r="U522">
+        <v>3.25</v>
+      </c>
+      <c r="V522">
+        <v>2.5</v>
+      </c>
+      <c r="W522">
+        <v>1.5</v>
+      </c>
+      <c r="X522">
+        <v>6.5</v>
+      </c>
+      <c r="Y522">
+        <v>1.11</v>
+      </c>
+      <c r="Z522">
+        <v>1.9</v>
+      </c>
+      <c r="AA522">
+        <v>3.41</v>
+      </c>
+      <c r="AB522">
+        <v>3.56</v>
+      </c>
+      <c r="AC522">
+        <v>1.03</v>
+      </c>
+      <c r="AD522">
+        <v>15</v>
+      </c>
+      <c r="AE522">
+        <v>1.22</v>
+      </c>
+      <c r="AF522">
+        <v>4.33</v>
+      </c>
+      <c r="AG522">
+        <v>1.65</v>
+      </c>
+      <c r="AH522">
+        <v>2.1</v>
+      </c>
+      <c r="AI522">
+        <v>1.62</v>
+      </c>
+      <c r="AJ522">
+        <v>2.2</v>
+      </c>
+      <c r="AK522">
+        <v>1.28</v>
+      </c>
+      <c r="AL522">
+        <v>1.22</v>
+      </c>
+      <c r="AM522">
+        <v>1.92</v>
+      </c>
+      <c r="AN522">
+        <v>1.97</v>
+      </c>
+      <c r="AO522">
+        <v>1.68</v>
+      </c>
+      <c r="AP522">
+        <v>2</v>
+      </c>
+      <c r="AQ522">
+        <v>1.63</v>
+      </c>
+      <c r="AR522">
+        <v>1.6</v>
+      </c>
+      <c r="AS522">
+        <v>1.45</v>
+      </c>
+      <c r="AT522">
+        <v>3.05</v>
+      </c>
+      <c r="AU522">
+        <v>6</v>
+      </c>
+      <c r="AV522">
+        <v>5</v>
+      </c>
+      <c r="AW522">
+        <v>3</v>
+      </c>
+      <c r="AX522">
+        <v>1</v>
+      </c>
+      <c r="AY522">
+        <v>14</v>
+      </c>
+      <c r="AZ522">
+        <v>9</v>
+      </c>
+      <c r="BA522">
+        <v>3</v>
+      </c>
+      <c r="BB522">
+        <v>5</v>
+      </c>
+      <c r="BC522">
+        <v>8</v>
+      </c>
+      <c r="BD522">
+        <v>1.7</v>
+      </c>
+      <c r="BE522">
+        <v>6.5</v>
+      </c>
+      <c r="BF522">
+        <v>2.23</v>
+      </c>
+      <c r="BG522">
+        <v>1.2</v>
+      </c>
+      <c r="BH522">
+        <v>3.8</v>
+      </c>
+      <c r="BI522">
+        <v>1.37</v>
+      </c>
+      <c r="BJ522">
+        <v>2.8</v>
+      </c>
+      <c r="BK522">
+        <v>1.61</v>
+      </c>
+      <c r="BL522">
+        <v>2.15</v>
+      </c>
+      <c r="BM522">
+        <v>1.96</v>
+      </c>
+      <c r="BN522">
+        <v>1.73</v>
+      </c>
+      <c r="BO522">
+        <v>2.45</v>
+      </c>
+      <c r="BP522">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -109579,7 +109579,7 @@
         <v>69</v>
       </c>
       <c r="E521" s="2">
-        <v>45626.875</v>
+        <v>45626.89583333334</v>
       </c>
       <c r="F521">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="688">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1285,16 +1285,19 @@
     <t>['5', '14', '64', '72']</t>
   </si>
   <si>
-    <t>['78', '87']</t>
+    <t>['40', '42', '58', '78', '81', '89']</t>
   </si>
   <si>
     <t>['18', '45+1']</t>
   </si>
   <si>
+    <t>['78', '87']</t>
+  </si>
+  <si>
     <t>['2']</t>
   </si>
   <si>
-    <t>['40', '42', '58', '78', '81', '89']</t>
+    <t>['16', '40']</t>
   </si>
   <si>
     <t>['73', '82']</t>
@@ -1307,9 +1310,6 @@
   </si>
   <si>
     <t>['44', '90+11']</t>
-  </si>
-  <si>
-    <t>['16', '40']</t>
   </si>
   <si>
     <t>['64', '75', '90+1']</t>
@@ -2014,19 +2014,19 @@
     <t>['50', '58', '90+1']</t>
   </si>
   <si>
-    <t>['14', '65', '67']</t>
-  </si>
-  <si>
     <t>['41', '90']</t>
   </si>
   <si>
-    <t>['3', '8']</t>
+    <t>['14', '65', '67']</t>
   </si>
   <si>
     <t>['25', '78']</t>
   </si>
   <si>
     <t>['10', '66', '72']</t>
+  </si>
+  <si>
+    <t>['3', '8']</t>
   </si>
   <si>
     <t>['90+13']</t>
@@ -2038,22 +2038,22 @@
     <t>['1', '90+3']</t>
   </si>
   <si>
-    <t>['2', '14', '90+7']</t>
-  </si>
-  <si>
     <t>['7', '16']</t>
   </si>
   <si>
-    <t>['45+4', '46']</t>
+    <t>['54', '87', '90+1']</t>
   </si>
   <si>
     <t>['58', '75', '90+1']</t>
   </si>
   <si>
-    <t>['54', '87', '90+1']</t>
+    <t>['2', '34']</t>
   </si>
   <si>
-    <t>['2', '34']</t>
+    <t>['2', '14', '90+7']</t>
+  </si>
+  <si>
+    <t>['45+4', '46']</t>
   </si>
   <si>
     <t>['42', '75']</t>
@@ -2439,7 +2439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP522"/>
+  <dimension ref="A1:BP521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3191,7 +3191,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="AQ16">
         <v>2.06</v>
@@ -13694,7 +13694,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="AQ55">
         <v>0.65</v>
@@ -16787,7 +16787,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR70">
         <v>1.18</v>
@@ -19462,10 +19462,10 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="AQ83">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR83">
         <v>1.98</v>
@@ -23997,7 +23997,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ105">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR105">
         <v>1.76</v>
@@ -25976,7 +25976,7 @@
         <v>193</v>
       </c>
       <c r="P115" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q115">
         <v>1.91</v>
@@ -28320,7 +28320,7 @@
         <v>0</v>
       </c>
       <c r="AP126">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="AQ126">
         <v>0.47</v>
@@ -29765,7 +29765,7 @@
         <v>1</v>
       </c>
       <c r="AQ133">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR133">
         <v>1.89</v>
@@ -31413,7 +31413,7 @@
         <v>1</v>
       </c>
       <c r="AQ141">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR141">
         <v>1.56</v>
@@ -36766,7 +36766,7 @@
         <v>1.83</v>
       </c>
       <c r="AP167">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="AQ167">
         <v>1.33</v>
@@ -37181,7 +37181,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ169">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR169">
         <v>1.32</v>
@@ -39653,7 +39653,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ181">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR181">
         <v>1.51</v>
@@ -44597,7 +44597,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ205">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR205">
         <v>1.81</v>
@@ -45624,7 +45624,7 @@
         <v>1.5</v>
       </c>
       <c r="AP210">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="AQ210">
         <v>1.5</v>
@@ -47890,7 +47890,7 @@
         <v>0.33</v>
       </c>
       <c r="AP221">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="AQ221">
         <v>0.53</v>
@@ -51395,7 +51395,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ238">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR238">
         <v>1.43</v>
@@ -54482,7 +54482,7 @@
         <v>0.63</v>
       </c>
       <c r="AP253">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="AQ253">
         <v>0.53</v>
@@ -56339,7 +56339,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ262">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR262">
         <v>1.79</v>
@@ -56954,7 +56954,7 @@
         <v>1.43</v>
       </c>
       <c r="AP265">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="AQ265">
         <v>0.95</v>
@@ -65606,7 +65606,7 @@
         <v>1.22</v>
       </c>
       <c r="AP307">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="AQ307">
         <v>1.5</v>
@@ -68284,7 +68284,7 @@
         <v>1.3</v>
       </c>
       <c r="AP320">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="AQ320">
         <v>1.47</v>
@@ -69523,7 +69523,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ326">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR326">
         <v>1.23</v>
@@ -73228,7 +73228,7 @@
         <v>1.17</v>
       </c>
       <c r="AP344">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="AQ344">
         <v>0.9399999999999999</v>
@@ -76936,7 +76936,7 @@
         <v>1</v>
       </c>
       <c r="AP362">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="AQ362">
         <v>0.83</v>
@@ -77145,7 +77145,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ363">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR363">
         <v>1.57</v>
@@ -79408,7 +79408,7 @@
         <v>0.83</v>
       </c>
       <c r="AP374">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="AQ374">
         <v>1.05</v>
@@ -82089,7 +82089,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ387">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR387">
         <v>1.75</v>
@@ -82707,7 +82707,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ390">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR390">
         <v>1.65</v>
@@ -84274,7 +84274,7 @@
         <v>376</v>
       </c>
       <c r="P398" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q398">
         <v>2</v>
@@ -86412,7 +86412,7 @@
         <v>1.5</v>
       </c>
       <c r="AP408">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="AQ408">
         <v>1.5</v>
@@ -91768,7 +91768,7 @@
         <v>1.67</v>
       </c>
       <c r="AP434">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="AQ434">
         <v>1.32</v>
@@ -97210,7 +97210,7 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>7295700</v>
+        <v>7295697</v>
       </c>
       <c r="C461" t="s">
         <v>68</v>
@@ -97225,190 +97225,190 @@
         <v>0</v>
       </c>
       <c r="G461" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H461" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J461">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K461">
         <v>1</v>
       </c>
       <c r="L461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M461">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N461">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O461" t="s">
+        <v>117</v>
+      </c>
+      <c r="P461" t="s">
         <v>104</v>
       </c>
-      <c r="P461" t="s">
-        <v>666</v>
-      </c>
       <c r="Q461">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="R461">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="S461">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="T461">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="U461">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="V461">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="W461">
+        <v>1.73</v>
+      </c>
+      <c r="X461">
+        <v>4.33</v>
+      </c>
+      <c r="Y461">
+        <v>1.2</v>
+      </c>
+      <c r="Z461">
         <v>1.44</v>
       </c>
-      <c r="X461">
-        <v>6.5</v>
-      </c>
-      <c r="Y461">
-        <v>1.11</v>
-      </c>
-      <c r="Z461">
-        <v>2.37</v>
-      </c>
       <c r="AA461">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="AB461">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="AC461">
         <v>1.01</v>
       </c>
       <c r="AD461">
+        <v>17</v>
+      </c>
+      <c r="AE461">
+        <v>1.08</v>
+      </c>
+      <c r="AF461">
+        <v>6.5</v>
+      </c>
+      <c r="AG461">
+        <v>1.38</v>
+      </c>
+      <c r="AH461">
+        <v>2.9</v>
+      </c>
+      <c r="AI461">
+        <v>1.53</v>
+      </c>
+      <c r="AJ461">
+        <v>2.38</v>
+      </c>
+      <c r="AK461">
+        <v>1.14</v>
+      </c>
+      <c r="AL461">
+        <v>1.18</v>
+      </c>
+      <c r="AM461">
+        <v>2.55</v>
+      </c>
+      <c r="AN461">
+        <v>2.07</v>
+      </c>
+      <c r="AO461">
+        <v>0.73</v>
+      </c>
+      <c r="AP461">
+        <v>2.15</v>
+      </c>
+      <c r="AQ461">
+        <v>0.65</v>
+      </c>
+      <c r="AR461">
+        <v>1.91</v>
+      </c>
+      <c r="AS461">
+        <v>1.37</v>
+      </c>
+      <c r="AT461">
+        <v>3.28</v>
+      </c>
+      <c r="AU461">
+        <v>5</v>
+      </c>
+      <c r="AV461">
+        <v>0</v>
+      </c>
+      <c r="AW461">
+        <v>7</v>
+      </c>
+      <c r="AX461">
+        <v>5</v>
+      </c>
+      <c r="AY461">
+        <v>20</v>
+      </c>
+      <c r="AZ461">
+        <v>10</v>
+      </c>
+      <c r="BA461">
+        <v>9</v>
+      </c>
+      <c r="BB461">
+        <v>2</v>
+      </c>
+      <c r="BC461">
         <v>11</v>
       </c>
-      <c r="AE461">
-        <v>1.2</v>
-      </c>
-      <c r="AF461">
-        <v>4</v>
-      </c>
-      <c r="AG461">
-        <v>1.7</v>
-      </c>
-      <c r="AH461">
-        <v>1.95</v>
-      </c>
-      <c r="AI461">
-        <v>1.62</v>
-      </c>
-      <c r="AJ461">
-        <v>2.2</v>
-      </c>
-      <c r="AK461">
-        <v>1.46</v>
-      </c>
-      <c r="AL461">
+      <c r="BD461">
+        <v>1.42</v>
+      </c>
+      <c r="BE461">
+        <v>7</v>
+      </c>
+      <c r="BF461">
+        <v>2.9</v>
+      </c>
+      <c r="BG461">
+        <v>1.17</v>
+      </c>
+      <c r="BH461">
+        <v>4.35</v>
+      </c>
+      <c r="BI461">
         <v>1.3</v>
       </c>
-      <c r="AM461">
-        <v>1.55</v>
-      </c>
-      <c r="AN461">
-        <v>1.57</v>
-      </c>
-      <c r="AO461">
-        <v>1.33</v>
-      </c>
-      <c r="AP461">
-        <v>1.47</v>
-      </c>
-      <c r="AQ461">
-        <v>1.5</v>
-      </c>
-      <c r="AR461">
-        <v>1.63</v>
-      </c>
-      <c r="AS461">
-        <v>1.27</v>
-      </c>
-      <c r="AT461">
-        <v>2.9</v>
-      </c>
-      <c r="AU461">
-        <v>4</v>
-      </c>
-      <c r="AV461">
-        <v>6</v>
-      </c>
-      <c r="AW461">
-        <v>3</v>
-      </c>
-      <c r="AX461">
-        <v>4</v>
-      </c>
-      <c r="AY461">
-        <v>10</v>
-      </c>
-      <c r="AZ461">
-        <v>12</v>
-      </c>
-      <c r="BA461">
-        <v>3</v>
-      </c>
-      <c r="BB461">
-        <v>6</v>
-      </c>
-      <c r="BC461">
-        <v>9</v>
-      </c>
-      <c r="BD461">
-        <v>1.9</v>
-      </c>
-      <c r="BE461">
-        <v>6.4</v>
-      </c>
-      <c r="BF461">
-        <v>1.98</v>
-      </c>
-      <c r="BG461">
-        <v>1.25</v>
-      </c>
-      <c r="BH461">
-        <v>3.45</v>
-      </c>
-      <c r="BI461">
-        <v>1.44</v>
-      </c>
       <c r="BJ461">
-        <v>2.55</v>
+        <v>3.15</v>
       </c>
       <c r="BK461">
-        <v>1.72</v>
+        <v>1.49</v>
       </c>
       <c r="BL461">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="BM461">
-        <v>2.1</v>
+        <v>1.77</v>
       </c>
       <c r="BN461">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="BO461">
-        <v>2.65</v>
+        <v>2.18</v>
       </c>
       <c r="BP461">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="462" spans="1:68">
@@ -97416,7 +97416,7 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>7295697</v>
+        <v>7295698</v>
       </c>
       <c r="C462" t="s">
         <v>68</v>
@@ -97431,70 +97431,70 @@
         <v>0</v>
       </c>
       <c r="G462" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H462" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K462">
         <v>1</v>
       </c>
       <c r="L462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N462">
         <v>1</v>
       </c>
       <c r="O462" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="P462" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="Q462">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="R462">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S462">
+        <v>4.33</v>
+      </c>
+      <c r="T462">
+        <v>1.25</v>
+      </c>
+      <c r="U462">
+        <v>3.75</v>
+      </c>
+      <c r="V462">
+        <v>2.1</v>
+      </c>
+      <c r="W462">
+        <v>1.67</v>
+      </c>
+      <c r="X462">
         <v>5</v>
       </c>
-      <c r="T462">
-        <v>1.22</v>
-      </c>
-      <c r="U462">
-        <v>4</v>
-      </c>
-      <c r="V462">
-        <v>2</v>
-      </c>
-      <c r="W462">
-        <v>1.73</v>
-      </c>
-      <c r="X462">
-        <v>4.33</v>
-      </c>
       <c r="Y462">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="Z462">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="AA462">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="AB462">
-        <v>5.25</v>
+        <v>3.9</v>
       </c>
       <c r="AC462">
         <v>1.01</v>
@@ -97503,118 +97503,118 @@
         <v>17</v>
       </c>
       <c r="AE462">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AF462">
-        <v>6.5</v>
+        <v>5.05</v>
       </c>
       <c r="AG462">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AH462">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AI462">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AJ462">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AK462">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AL462">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="AM462">
-        <v>2.55</v>
+        <v>2.12</v>
       </c>
       <c r="AN462">
         <v>2.07</v>
       </c>
       <c r="AO462">
-        <v>0.73</v>
+        <v>0.87</v>
       </c>
       <c r="AP462">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="AQ462">
-        <v>0.65</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR462">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="AS462">
-        <v>1.37</v>
+        <v>0.99</v>
       </c>
       <c r="AT462">
-        <v>3.28</v>
+        <v>2.78</v>
       </c>
       <c r="AU462">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AV462">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW462">
         <v>7</v>
       </c>
       <c r="AX462">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY462">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AZ462">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA462">
         <v>9</v>
       </c>
       <c r="BB462">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC462">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD462">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="BE462">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BF462">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="BG462">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="BH462">
-        <v>4.35</v>
+        <v>2.95</v>
       </c>
       <c r="BI462">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="BJ462">
+        <v>2.23</v>
+      </c>
+      <c r="BK462">
+        <v>1.95</v>
+      </c>
+      <c r="BL462">
+        <v>1.74</v>
+      </c>
+      <c r="BM462">
+        <v>2.45</v>
+      </c>
+      <c r="BN462">
+        <v>1.48</v>
+      </c>
+      <c r="BO462">
         <v>3.15</v>
       </c>
-      <c r="BK462">
-        <v>1.49</v>
-      </c>
-      <c r="BL462">
-        <v>2.4</v>
-      </c>
-      <c r="BM462">
-        <v>1.77</v>
-      </c>
-      <c r="BN462">
-        <v>1.91</v>
-      </c>
-      <c r="BO462">
-        <v>2.18</v>
-      </c>
       <c r="BP462">
-        <v>1.58</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="463" spans="1:68">
@@ -97622,7 +97622,7 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>7295698</v>
+        <v>7295699</v>
       </c>
       <c r="C463" t="s">
         <v>68</v>
@@ -97637,88 +97637,88 @@
         <v>0</v>
       </c>
       <c r="G463" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H463" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I463">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J463">
         <v>1</v>
       </c>
       <c r="K463">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L463">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M463">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N463">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O463" t="s">
-        <v>104</v>
+        <v>415</v>
       </c>
       <c r="P463" t="s">
-        <v>179</v>
+        <v>666</v>
       </c>
       <c r="Q463">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="R463">
+        <v>2.38</v>
+      </c>
+      <c r="S463">
+        <v>3.1</v>
+      </c>
+      <c r="T463">
+        <v>1.3</v>
+      </c>
+      <c r="U463">
+        <v>3.4</v>
+      </c>
+      <c r="V463">
+        <v>2.38</v>
+      </c>
+      <c r="W463">
+        <v>1.53</v>
+      </c>
+      <c r="X463">
+        <v>6</v>
+      </c>
+      <c r="Y463">
+        <v>1.13</v>
+      </c>
+      <c r="Z463">
+        <v>2.3</v>
+      </c>
+      <c r="AA463">
+        <v>3.4</v>
+      </c>
+      <c r="AB463">
         <v>2.5</v>
-      </c>
-      <c r="S463">
-        <v>4.33</v>
-      </c>
-      <c r="T463">
-        <v>1.25</v>
-      </c>
-      <c r="U463">
-        <v>3.75</v>
-      </c>
-      <c r="V463">
-        <v>2.1</v>
-      </c>
-      <c r="W463">
-        <v>1.67</v>
-      </c>
-      <c r="X463">
-        <v>5</v>
-      </c>
-      <c r="Y463">
-        <v>1.17</v>
-      </c>
-      <c r="Z463">
-        <v>1.65</v>
-      </c>
-      <c r="AA463">
-        <v>3.9</v>
-      </c>
-      <c r="AB463">
-        <v>3.9</v>
       </c>
       <c r="AC463">
         <v>1.01</v>
       </c>
       <c r="AD463">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE463">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AF463">
-        <v>5.05</v>
+        <v>4.8</v>
       </c>
       <c r="AG463">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="AH463">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="AI463">
         <v>1.5</v>
@@ -97727,100 +97727,100 @@
         <v>2.5</v>
       </c>
       <c r="AK463">
-        <v>1.21</v>
+        <v>1.51</v>
       </c>
       <c r="AL463">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AM463">
-        <v>2.12</v>
+        <v>1.53</v>
       </c>
       <c r="AN463">
-        <v>2.07</v>
+        <v>0.67</v>
       </c>
       <c r="AO463">
-        <v>0.87</v>
+        <v>0.53</v>
       </c>
       <c r="AP463">
-        <v>1.88</v>
+        <v>0.76</v>
       </c>
       <c r="AQ463">
-        <v>0.9399999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="AR463">
-        <v>1.79</v>
+        <v>1.38</v>
       </c>
       <c r="AS463">
-        <v>0.99</v>
+        <v>1.11</v>
       </c>
       <c r="AT463">
-        <v>2.78</v>
+        <v>2.49</v>
       </c>
       <c r="AU463">
+        <v>6</v>
+      </c>
+      <c r="AV463">
+        <v>6</v>
+      </c>
+      <c r="AW463">
+        <v>4</v>
+      </c>
+      <c r="AX463">
+        <v>8</v>
+      </c>
+      <c r="AY463">
         <v>11</v>
       </c>
-      <c r="AV463">
-        <v>2</v>
-      </c>
-      <c r="AW463">
-        <v>7</v>
-      </c>
-      <c r="AX463">
+      <c r="AZ463">
+        <v>17</v>
+      </c>
+      <c r="BA463">
         <v>4</v>
       </c>
-      <c r="AY463">
-        <v>28</v>
-      </c>
-      <c r="AZ463">
-        <v>8</v>
-      </c>
-      <c r="BA463">
+      <c r="BB463">
+        <v>5</v>
+      </c>
+      <c r="BC463">
         <v>9</v>
       </c>
-      <c r="BB463">
-        <v>3</v>
-      </c>
-      <c r="BC463">
-        <v>12</v>
-      </c>
       <c r="BD463">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="BE463">
         <v>6.5</v>
       </c>
       <c r="BF463">
-        <v>2.65</v>
+        <v>2.43</v>
       </c>
       <c r="BG463">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="BH463">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="BI463">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="BJ463">
-        <v>2.23</v>
+        <v>2.5</v>
       </c>
       <c r="BK463">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="BL463">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="BM463">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="BN463">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="BO463">
-        <v>3.15</v>
+        <v>2.75</v>
       </c>
       <c r="BP463">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="464" spans="1:68">
@@ -97828,7 +97828,7 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>7295699</v>
+        <v>7295700</v>
       </c>
       <c r="C464" t="s">
         <v>68</v>
@@ -97843,70 +97843,70 @@
         <v>0</v>
       </c>
       <c r="G464" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H464" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J464">
         <v>1</v>
       </c>
       <c r="K464">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L464">
+        <v>0</v>
+      </c>
+      <c r="M464">
         <v>3</v>
       </c>
-      <c r="M464">
-        <v>2</v>
-      </c>
       <c r="N464">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O464" t="s">
-        <v>415</v>
+        <v>104</v>
       </c>
       <c r="P464" t="s">
         <v>667</v>
       </c>
       <c r="Q464">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="R464">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S464">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="T464">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U464">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V464">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W464">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X464">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y464">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z464">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="AA464">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AB464">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AC464">
         <v>1.01</v>
@@ -97915,118 +97915,118 @@
         <v>11</v>
       </c>
       <c r="AE464">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AF464">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="AG464">
+        <v>1.7</v>
+      </c>
+      <c r="AH464">
+        <v>1.95</v>
+      </c>
+      <c r="AI464">
+        <v>1.62</v>
+      </c>
+      <c r="AJ464">
+        <v>2.2</v>
+      </c>
+      <c r="AK464">
+        <v>1.46</v>
+      </c>
+      <c r="AL464">
+        <v>1.3</v>
+      </c>
+      <c r="AM464">
         <v>1.55</v>
       </c>
-      <c r="AH464">
-        <v>2.2</v>
-      </c>
-      <c r="AI464">
-        <v>1.5</v>
-      </c>
-      <c r="AJ464">
-        <v>2.5</v>
-      </c>
-      <c r="AK464">
-        <v>1.51</v>
-      </c>
-      <c r="AL464">
-        <v>1.28</v>
-      </c>
-      <c r="AM464">
-        <v>1.53</v>
-      </c>
       <c r="AN464">
-        <v>0.67</v>
+        <v>1.57</v>
       </c>
       <c r="AO464">
-        <v>0.53</v>
+        <v>1.33</v>
       </c>
       <c r="AP464">
-        <v>0.76</v>
+        <v>1.47</v>
       </c>
       <c r="AQ464">
-        <v>0.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR464">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AS464">
-        <v>1.11</v>
+        <v>1.27</v>
       </c>
       <c r="AT464">
-        <v>2.49</v>
+        <v>2.9</v>
       </c>
       <c r="AU464">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV464">
         <v>6</v>
       </c>
       <c r="AW464">
+        <v>3</v>
+      </c>
+      <c r="AX464">
         <v>4</v>
       </c>
-      <c r="AX464">
-        <v>8</v>
-      </c>
       <c r="AY464">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ464">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BA464">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB464">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC464">
         <v>9</v>
       </c>
       <c r="BD464">
-        <v>1.58</v>
+        <v>1.9</v>
       </c>
       <c r="BE464">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF464">
-        <v>2.43</v>
+        <v>1.98</v>
       </c>
       <c r="BG464">
         <v>1.25</v>
       </c>
       <c r="BH464">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="BI464">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="BJ464">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="BK464">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="BL464">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="BM464">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="BN464">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="BO464">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="BP464">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="465" spans="1:68">
@@ -98240,7 +98240,7 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>7295706</v>
+        <v>7295705</v>
       </c>
       <c r="C466" t="s">
         <v>68</v>
@@ -98255,160 +98255,160 @@
         <v>0</v>
       </c>
       <c r="G466" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="H466" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I466">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J466">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K466">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L466">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M466">
         <v>2</v>
       </c>
       <c r="N466">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O466" t="s">
-        <v>267</v>
+        <v>416</v>
       </c>
       <c r="P466" t="s">
         <v>668</v>
       </c>
       <c r="Q466">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="R466">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S466">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="T466">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="U466">
-        <v>3.3</v>
+        <v>3.92</v>
       </c>
       <c r="V466">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="W466">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="X466">
-        <v>5</v>
+        <v>4.45</v>
       </c>
       <c r="Y466">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="Z466">
-        <v>2.23</v>
+        <v>1.59</v>
       </c>
       <c r="AA466">
-        <v>3.92</v>
+        <v>4.58</v>
       </c>
       <c r="AB466">
-        <v>2.89</v>
+        <v>4.98</v>
       </c>
       <c r="AC466">
         <v>1.01</v>
       </c>
       <c r="AD466">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE466">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AF466">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG466">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AH466">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="AI466">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AJ466">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="AK466">
-        <v>1.37</v>
+        <v>1.19</v>
       </c>
       <c r="AL466">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AM466">
-        <v>1.7</v>
+        <v>2.36</v>
       </c>
       <c r="AN466">
-        <v>1.19</v>
+        <v>1.87</v>
       </c>
       <c r="AO466">
         <v>1.25</v>
       </c>
       <c r="AP466">
-        <v>1.12</v>
+        <v>1.89</v>
       </c>
       <c r="AQ466">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="AR466">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="AS466">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AT466">
-        <v>2.63</v>
+        <v>2.91</v>
       </c>
       <c r="AU466">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AV466">
+        <v>7</v>
+      </c>
+      <c r="AW466">
         <v>5</v>
       </c>
-      <c r="AW466">
+      <c r="AX466">
         <v>4</v>
       </c>
-      <c r="AX466">
-        <v>5</v>
-      </c>
       <c r="AY466">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AZ466">
         <v>12</v>
       </c>
       <c r="BA466">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BB466">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC466">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD466">
-        <v>1.85</v>
+        <v>1.39</v>
       </c>
       <c r="BE466">
-        <v>7.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="BF466">
-        <v>2.42</v>
+        <v>3.75</v>
       </c>
       <c r="BG466">
         <v>1.17</v>
@@ -98429,16 +98429,16 @@
         <v>2.09</v>
       </c>
       <c r="BM466">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="BN466">
         <v>1.69</v>
       </c>
       <c r="BO466">
-        <v>2.73</v>
+        <v>2.69</v>
       </c>
       <c r="BP466">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="467" spans="1:68">
@@ -98446,7 +98446,7 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>7295705</v>
+        <v>7295704</v>
       </c>
       <c r="C467" t="s">
         <v>68</v>
@@ -98461,190 +98461,190 @@
         <v>0</v>
       </c>
       <c r="G467" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H467" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I467">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J467">
         <v>1</v>
       </c>
       <c r="K467">
+        <v>2</v>
+      </c>
+      <c r="L467">
+        <v>1</v>
+      </c>
+      <c r="M467">
         <v>3</v>
       </c>
-      <c r="L467">
-        <v>3</v>
-      </c>
-      <c r="M467">
-        <v>2</v>
-      </c>
       <c r="N467">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O467" t="s">
-        <v>416</v>
+        <v>116</v>
       </c>
       <c r="P467" t="s">
         <v>669</v>
       </c>
       <c r="Q467">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="R467">
+        <v>2.38</v>
+      </c>
+      <c r="S467">
+        <v>4.33</v>
+      </c>
+      <c r="T467">
+        <v>1.3</v>
+      </c>
+      <c r="U467">
+        <v>3.4</v>
+      </c>
+      <c r="V467">
         <v>2.5</v>
       </c>
-      <c r="S467">
-        <v>4.5</v>
-      </c>
-      <c r="T467">
-        <v>1.23</v>
-      </c>
-      <c r="U467">
-        <v>3.92</v>
-      </c>
-      <c r="V467">
-        <v>2.12</v>
-      </c>
       <c r="W467">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="X467">
-        <v>4.45</v>
+        <v>6</v>
       </c>
       <c r="Y467">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="Z467">
-        <v>1.59</v>
+        <v>1.79</v>
       </c>
       <c r="AA467">
-        <v>4.58</v>
+        <v>3.98</v>
       </c>
       <c r="AB467">
-        <v>4.98</v>
+        <v>4.15</v>
       </c>
       <c r="AC467">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD467">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE467">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AF467">
+        <v>4.05</v>
+      </c>
+      <c r="AG467">
+        <v>1.62</v>
+      </c>
+      <c r="AH467">
+        <v>2.15</v>
+      </c>
+      <c r="AI467">
+        <v>1.62</v>
+      </c>
+      <c r="AJ467">
+        <v>2.2</v>
+      </c>
+      <c r="AK467">
+        <v>1.22</v>
+      </c>
+      <c r="AL467">
+        <v>1.25</v>
+      </c>
+      <c r="AM467">
+        <v>2.06</v>
+      </c>
+      <c r="AN467">
+        <v>1.5</v>
+      </c>
+      <c r="AO467">
+        <v>1.5</v>
+      </c>
+      <c r="AP467">
+        <v>1.47</v>
+      </c>
+      <c r="AQ467">
+        <v>1.56</v>
+      </c>
+      <c r="AR467">
+        <v>1.57</v>
+      </c>
+      <c r="AS467">
+        <v>1.38</v>
+      </c>
+      <c r="AT467">
+        <v>2.95</v>
+      </c>
+      <c r="AU467">
+        <v>7</v>
+      </c>
+      <c r="AV467">
         <v>6</v>
       </c>
-      <c r="AG467">
-        <v>1.4</v>
-      </c>
-      <c r="AH467">
-        <v>2.75</v>
-      </c>
-      <c r="AI467">
-        <v>1.47</v>
-      </c>
-      <c r="AJ467">
-        <v>2.63</v>
-      </c>
-      <c r="AK467">
-        <v>1.19</v>
-      </c>
-      <c r="AL467">
-        <v>1.21</v>
-      </c>
-      <c r="AM467">
-        <v>2.36</v>
-      </c>
-      <c r="AN467">
-        <v>1.87</v>
-      </c>
-      <c r="AO467">
-        <v>1.25</v>
-      </c>
-      <c r="AP467">
-        <v>1.89</v>
-      </c>
-      <c r="AQ467">
-        <v>1.18</v>
-      </c>
-      <c r="AR467">
-        <v>1.58</v>
-      </c>
-      <c r="AS467">
-        <v>1.33</v>
-      </c>
-      <c r="AT467">
-        <v>2.91</v>
-      </c>
-      <c r="AU467">
-        <v>11</v>
-      </c>
-      <c r="AV467">
+      <c r="AW467">
+        <v>12</v>
+      </c>
+      <c r="AX467">
+        <v>1</v>
+      </c>
+      <c r="AY467">
+        <v>20</v>
+      </c>
+      <c r="AZ467">
         <v>7</v>
       </c>
-      <c r="AW467">
+      <c r="BA467">
         <v>5</v>
       </c>
-      <c r="AX467">
-        <v>4</v>
-      </c>
-      <c r="AY467">
-        <v>21</v>
-      </c>
-      <c r="AZ467">
-        <v>12</v>
-      </c>
-      <c r="BA467">
-        <v>9</v>
-      </c>
       <c r="BB467">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC467">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD467">
-        <v>1.39</v>
+        <v>1.63</v>
       </c>
       <c r="BE467">
-        <v>9.300000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="BF467">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="BG467">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="BH467">
-        <v>3.78</v>
+        <v>3.15</v>
       </c>
       <c r="BI467">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="BJ467">
-        <v>2.71</v>
+        <v>2.33</v>
       </c>
       <c r="BK467">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="BL467">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
       <c r="BM467">
-        <v>2.15</v>
+        <v>2.33</v>
       </c>
       <c r="BN467">
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="BO467">
-        <v>2.69</v>
+        <v>3</v>
       </c>
       <c r="BP467">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="468" spans="1:68">
@@ -98858,7 +98858,7 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>7295704</v>
+        <v>7295706</v>
       </c>
       <c r="C469" t="s">
         <v>68</v>
@@ -98873,16 +98873,16 @@
         <v>0</v>
       </c>
       <c r="G469" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H469" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I469">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J469">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K469">
         <v>2</v>
@@ -98891,172 +98891,172 @@
         <v>1</v>
       </c>
       <c r="M469">
+        <v>2</v>
+      </c>
+      <c r="N469">
         <v>3</v>
       </c>
-      <c r="N469">
-        <v>4</v>
-      </c>
       <c r="O469" t="s">
-        <v>116</v>
+        <v>267</v>
       </c>
       <c r="P469" t="s">
         <v>670</v>
       </c>
       <c r="Q469">
+        <v>2.63</v>
+      </c>
+      <c r="R469">
         <v>2.3</v>
       </c>
-      <c r="R469">
-        <v>2.38</v>
-      </c>
       <c r="S469">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="T469">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U469">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="V469">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W469">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="X469">
+        <v>5</v>
+      </c>
+      <c r="Y469">
+        <v>1.14</v>
+      </c>
+      <c r="Z469">
+        <v>2.23</v>
+      </c>
+      <c r="AA469">
+        <v>3.92</v>
+      </c>
+      <c r="AB469">
+        <v>2.89</v>
+      </c>
+      <c r="AC469">
+        <v>1.01</v>
+      </c>
+      <c r="AD469">
+        <v>15</v>
+      </c>
+      <c r="AE469">
+        <v>1.14</v>
+      </c>
+      <c r="AF469">
+        <v>5.5</v>
+      </c>
+      <c r="AG469">
+        <v>1.45</v>
+      </c>
+      <c r="AH469">
+        <v>2.55</v>
+      </c>
+      <c r="AI469">
+        <v>1.44</v>
+      </c>
+      <c r="AJ469">
+        <v>2.7</v>
+      </c>
+      <c r="AK469">
+        <v>1.37</v>
+      </c>
+      <c r="AL469">
+        <v>1.28</v>
+      </c>
+      <c r="AM469">
+        <v>1.7</v>
+      </c>
+      <c r="AN469">
+        <v>1.19</v>
+      </c>
+      <c r="AO469">
+        <v>1.25</v>
+      </c>
+      <c r="AP469">
+        <v>1.12</v>
+      </c>
+      <c r="AQ469">
+        <v>1.35</v>
+      </c>
+      <c r="AR469">
+        <v>1.34</v>
+      </c>
+      <c r="AS469">
+        <v>1.29</v>
+      </c>
+      <c r="AT469">
+        <v>2.63</v>
+      </c>
+      <c r="AU469">
+        <v>2</v>
+      </c>
+      <c r="AV469">
+        <v>5</v>
+      </c>
+      <c r="AW469">
+        <v>4</v>
+      </c>
+      <c r="AX469">
+        <v>5</v>
+      </c>
+      <c r="AY469">
+        <v>14</v>
+      </c>
+      <c r="AZ469">
+        <v>12</v>
+      </c>
+      <c r="BA469">
         <v>6</v>
       </c>
-      <c r="Y469">
-        <v>1.13</v>
-      </c>
-      <c r="Z469">
-        <v>1.79</v>
-      </c>
-      <c r="AA469">
-        <v>3.98</v>
-      </c>
-      <c r="AB469">
-        <v>4.15</v>
-      </c>
-      <c r="AC469">
-        <v>1.04</v>
-      </c>
-      <c r="AD469">
-        <v>10</v>
-      </c>
-      <c r="AE469">
-        <v>1.16</v>
-      </c>
-      <c r="AF469">
-        <v>4.05</v>
-      </c>
-      <c r="AG469">
-        <v>1.62</v>
-      </c>
-      <c r="AH469">
-        <v>2.15</v>
-      </c>
-      <c r="AI469">
-        <v>1.62</v>
-      </c>
-      <c r="AJ469">
-        <v>2.2</v>
-      </c>
-      <c r="AK469">
-        <v>1.22</v>
-      </c>
-      <c r="AL469">
-        <v>1.25</v>
-      </c>
-      <c r="AM469">
-        <v>2.06</v>
-      </c>
-      <c r="AN469">
-        <v>1.5</v>
-      </c>
-      <c r="AO469">
-        <v>1.5</v>
-      </c>
-      <c r="AP469">
-        <v>1.47</v>
-      </c>
-      <c r="AQ469">
-        <v>1.56</v>
-      </c>
-      <c r="AR469">
-        <v>1.57</v>
-      </c>
-      <c r="AS469">
+      <c r="BB469">
+        <v>7</v>
+      </c>
+      <c r="BC469">
+        <v>13</v>
+      </c>
+      <c r="BD469">
+        <v>1.85</v>
+      </c>
+      <c r="BE469">
+        <v>7.2</v>
+      </c>
+      <c r="BF469">
+        <v>2.42</v>
+      </c>
+      <c r="BG469">
+        <v>1.17</v>
+      </c>
+      <c r="BH469">
+        <v>3.78</v>
+      </c>
+      <c r="BI469">
         <v>1.38</v>
       </c>
-      <c r="AT469">
-        <v>2.95</v>
-      </c>
-      <c r="AU469">
-        <v>7</v>
-      </c>
-      <c r="AV469">
-        <v>6</v>
-      </c>
-      <c r="AW469">
-        <v>12</v>
-      </c>
-      <c r="AX469">
-        <v>1</v>
-      </c>
-      <c r="AY469">
-        <v>20</v>
-      </c>
-      <c r="AZ469">
-        <v>7</v>
-      </c>
-      <c r="BA469">
-        <v>5</v>
-      </c>
-      <c r="BB469">
-        <v>5</v>
-      </c>
-      <c r="BC469">
-        <v>10</v>
-      </c>
-      <c r="BD469">
-        <v>1.63</v>
-      </c>
-      <c r="BE469">
-        <v>6.4</v>
-      </c>
-      <c r="BF469">
-        <v>2.4</v>
-      </c>
-      <c r="BG469">
-        <v>1.3</v>
-      </c>
-      <c r="BH469">
-        <v>3.15</v>
-      </c>
-      <c r="BI469">
-        <v>1.52</v>
-      </c>
       <c r="BJ469">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
       <c r="BK469">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="BL469">
-        <v>1.83</v>
+        <v>2.09</v>
       </c>
       <c r="BM469">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="BN469">
-        <v>1.52</v>
+        <v>1.69</v>
       </c>
       <c r="BO469">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="BP469">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="470" spans="1:68">
@@ -99476,7 +99476,7 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>7295709</v>
+        <v>7295710</v>
       </c>
       <c r="C472" t="s">
         <v>68</v>
@@ -99491,124 +99491,124 @@
         <v>0</v>
       </c>
       <c r="G472" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H472" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I472">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J472">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K472">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L472">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M472">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N472">
         <v>3</v>
       </c>
       <c r="O472" t="s">
+        <v>419</v>
+      </c>
+      <c r="P472" t="s">
         <v>104</v>
       </c>
-      <c r="P472" t="s">
-        <v>672</v>
-      </c>
       <c r="Q472">
-        <v>3.24</v>
+        <v>2.75</v>
       </c>
       <c r="R472">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S472">
-        <v>2.79</v>
+        <v>3.3</v>
       </c>
       <c r="T472">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="U472">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="V472">
-        <v>2.31</v>
+        <v>2.37</v>
       </c>
       <c r="W472">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X472">
-        <v>5.15</v>
+        <v>5.5</v>
       </c>
       <c r="Y472">
         <v>1.14</v>
       </c>
       <c r="Z472">
-        <v>2.74</v>
+        <v>2.44</v>
       </c>
       <c r="AA472">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AB472">
-        <v>2.37</v>
+        <v>2.67</v>
       </c>
       <c r="AC472">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD472">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE472">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="AF472">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AG472">
         <v>1.58</v>
       </c>
       <c r="AH472">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="AI472">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AJ472">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AK472">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="AL472">
         <v>1.29</v>
       </c>
       <c r="AM472">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AN472">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AO472">
-        <v>1.4</v>
+        <v>1.63</v>
       </c>
       <c r="AP472">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="AQ472">
         <v>1.5</v>
       </c>
       <c r="AR472">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="AS472">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="AT472">
-        <v>3.09</v>
+        <v>2.94</v>
       </c>
       <c r="AU472">
         <v>4</v>
@@ -99617,64 +99617,64 @@
         <v>5</v>
       </c>
       <c r="AW472">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX472">
         <v>5</v>
       </c>
       <c r="AY472">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ472">
+        <v>10</v>
+      </c>
+      <c r="BA472">
+        <v>5</v>
+      </c>
+      <c r="BB472">
+        <v>9</v>
+      </c>
+      <c r="BC472">
         <v>14</v>
       </c>
-      <c r="BA472">
-        <v>3</v>
-      </c>
-      <c r="BB472">
-        <v>8</v>
-      </c>
-      <c r="BC472">
-        <v>11</v>
-      </c>
       <c r="BD472">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="BE472">
         <v>7.3</v>
       </c>
       <c r="BF472">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="BG472">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="BH472">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="BI472">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="BJ472">
-        <v>3.08</v>
+        <v>2.97</v>
       </c>
       <c r="BK472">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="BL472">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="BM472">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="BN472">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="BO472">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="BP472">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="473" spans="1:68">
@@ -99682,7 +99682,7 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>7295710</v>
+        <v>7295709</v>
       </c>
       <c r="C473" t="s">
         <v>68</v>
@@ -99697,124 +99697,124 @@
         <v>0</v>
       </c>
       <c r="G473" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H473" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I473">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J473">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K473">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L473">
+        <v>0</v>
+      </c>
+      <c r="M473">
         <v>3</v>
-      </c>
-      <c r="M473">
-        <v>0</v>
       </c>
       <c r="N473">
         <v>3</v>
       </c>
       <c r="O473" t="s">
-        <v>419</v>
+        <v>104</v>
       </c>
       <c r="P473" t="s">
-        <v>104</v>
+        <v>672</v>
       </c>
       <c r="Q473">
-        <v>2.75</v>
+        <v>3.24</v>
       </c>
       <c r="R473">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S473">
+        <v>2.79</v>
+      </c>
+      <c r="T473">
+        <v>1.28</v>
+      </c>
+      <c r="U473">
         <v>3.3</v>
       </c>
-      <c r="T473">
-        <v>1.29</v>
-      </c>
-      <c r="U473">
-        <v>3.5</v>
-      </c>
       <c r="V473">
-        <v>2.37</v>
+        <v>2.31</v>
       </c>
       <c r="W473">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X473">
-        <v>5.5</v>
+        <v>5.15</v>
       </c>
       <c r="Y473">
         <v>1.14</v>
       </c>
       <c r="Z473">
-        <v>2.44</v>
+        <v>2.74</v>
       </c>
       <c r="AA473">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AB473">
-        <v>2.67</v>
+        <v>2.37</v>
       </c>
       <c r="AC473">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD473">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE473">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AF473">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AG473">
         <v>1.58</v>
       </c>
       <c r="AH473">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="AI473">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AJ473">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AK473">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AL473">
         <v>1.29</v>
       </c>
       <c r="AM473">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="AN473">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AO473">
-        <v>1.63</v>
+        <v>1.4</v>
       </c>
       <c r="AP473">
-        <v>1.53</v>
+        <v>1.29</v>
       </c>
       <c r="AQ473">
         <v>1.5</v>
       </c>
       <c r="AR473">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="AS473">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="AT473">
-        <v>2.94</v>
+        <v>3.09</v>
       </c>
       <c r="AU473">
         <v>4</v>
@@ -99823,64 +99823,64 @@
         <v>5</v>
       </c>
       <c r="AW473">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX473">
         <v>5</v>
       </c>
       <c r="AY473">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ473">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA473">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB473">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC473">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BD473">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="BE473">
         <v>7.3</v>
       </c>
       <c r="BF473">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="BG473">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="BH473">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="BI473">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="BJ473">
-        <v>2.97</v>
+        <v>3.08</v>
       </c>
       <c r="BK473">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="BL473">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="BM473">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="BN473">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="BO473">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="BP473">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="474" spans="1:68">
@@ -100011,7 +100011,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ474">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR474">
         <v>1.58</v>
@@ -100094,7 +100094,7 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>7295712</v>
+        <v>7295713</v>
       </c>
       <c r="C475" t="s">
         <v>68</v>
@@ -100109,190 +100109,190 @@
         <v>0</v>
       </c>
       <c r="G475" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H475" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I475">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J475">
         <v>0</v>
       </c>
       <c r="K475">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L475">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M475">
         <v>1</v>
       </c>
       <c r="N475">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O475" t="s">
-        <v>420</v>
+        <v>104</v>
       </c>
       <c r="P475" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="Q475">
-        <v>1.94</v>
+        <v>3.5</v>
       </c>
       <c r="R475">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="S475">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="T475">
+        <v>1.25</v>
+      </c>
+      <c r="U475">
+        <v>3.6</v>
+      </c>
+      <c r="V475">
+        <v>2.1</v>
+      </c>
+      <c r="W475">
+        <v>1.69</v>
+      </c>
+      <c r="X475">
+        <v>4.5</v>
+      </c>
+      <c r="Y475">
         <v>1.18</v>
       </c>
-      <c r="U475">
-        <v>4.55</v>
-      </c>
-      <c r="V475">
-        <v>1.89</v>
-      </c>
-      <c r="W475">
-        <v>1.86</v>
-      </c>
-      <c r="X475">
-        <v>3.7</v>
-      </c>
-      <c r="Y475">
-        <v>1.22</v>
-      </c>
       <c r="Z475">
-        <v>1.59</v>
+        <v>3.25</v>
       </c>
       <c r="AA475">
-        <v>4.68</v>
+        <v>4.07</v>
       </c>
       <c r="AB475">
-        <v>4.78</v>
+        <v>2.01</v>
       </c>
       <c r="AC475">
         <v>1.01</v>
       </c>
       <c r="AD475">
-        <v>33.5</v>
+        <v>17</v>
       </c>
       <c r="AE475">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AF475">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AG475">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AH475">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="AI475">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AJ475">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="AK475">
-        <v>1.16</v>
+        <v>1.73</v>
       </c>
       <c r="AL475">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AM475">
-        <v>2.5</v>
+        <v>1.34</v>
       </c>
       <c r="AN475">
-        <v>2.44</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO475">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP475">
-        <v>2.55</v>
+        <v>0.76</v>
       </c>
       <c r="AQ475">
-        <v>0.9399999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="AR475">
-        <v>1.72</v>
+        <v>1.37</v>
       </c>
       <c r="AS475">
-        <v>0.97</v>
+        <v>1.55</v>
       </c>
       <c r="AT475">
-        <v>2.69</v>
+        <v>2.92</v>
       </c>
       <c r="AU475">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV475">
         <v>6</v>
       </c>
       <c r="AW475">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX475">
         <v>6</v>
       </c>
       <c r="AY475">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AZ475">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA475">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB475">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BC475">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD475">
-        <v>1.42</v>
+        <v>2.25</v>
       </c>
       <c r="BE475">
-        <v>9.5</v>
+        <v>7.4</v>
       </c>
       <c r="BF475">
-        <v>3.52</v>
+        <v>1.95</v>
       </c>
       <c r="BG475">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="BH475">
-        <v>4.65</v>
+        <v>5.05</v>
       </c>
       <c r="BI475">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="BJ475">
-        <v>3.14</v>
+        <v>3.35</v>
       </c>
       <c r="BK475">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="BL475">
-        <v>2.41</v>
+        <v>2.51</v>
       </c>
       <c r="BM475">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="BN475">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="BO475">
-        <v>2.3</v>
+        <v>2.21</v>
       </c>
       <c r="BP475">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="476" spans="1:68">
@@ -100300,7 +100300,7 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>7295713</v>
+        <v>7295712</v>
       </c>
       <c r="C476" t="s">
         <v>68</v>
@@ -100315,190 +100315,190 @@
         <v>0</v>
       </c>
       <c r="G476" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H476" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I476">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J476">
         <v>0</v>
       </c>
       <c r="K476">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L476">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M476">
         <v>1</v>
       </c>
       <c r="N476">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O476" t="s">
-        <v>104</v>
+        <v>420</v>
       </c>
       <c r="P476" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="Q476">
-        <v>3.5</v>
+        <v>1.94</v>
       </c>
       <c r="R476">
-        <v>2.4</v>
+        <v>2.74</v>
       </c>
       <c r="S476">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="T476">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="U476">
-        <v>3.6</v>
+        <v>4.55</v>
       </c>
       <c r="V476">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="W476">
-        <v>1.69</v>
+        <v>1.86</v>
       </c>
       <c r="X476">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="Y476">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="Z476">
-        <v>3.25</v>
+        <v>1.59</v>
       </c>
       <c r="AA476">
-        <v>4.07</v>
+        <v>4.68</v>
       </c>
       <c r="AB476">
-        <v>2.01</v>
+        <v>4.78</v>
       </c>
       <c r="AC476">
         <v>1.01</v>
       </c>
       <c r="AD476">
-        <v>17</v>
+        <v>33.5</v>
       </c>
       <c r="AE476">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AF476">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AG476">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AH476">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="AI476">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AJ476">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="AK476">
-        <v>1.73</v>
+        <v>1.16</v>
       </c>
       <c r="AL476">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AM476">
-        <v>1.34</v>
+        <v>2.5</v>
       </c>
       <c r="AN476">
-        <v>0.8100000000000001</v>
+        <v>2.44</v>
       </c>
       <c r="AO476">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP476">
-        <v>0.76</v>
+        <v>2.53</v>
       </c>
       <c r="AQ476">
-        <v>1.33</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR476">
-        <v>1.37</v>
+        <v>1.72</v>
       </c>
       <c r="AS476">
-        <v>1.55</v>
+        <v>0.97</v>
       </c>
       <c r="AT476">
-        <v>2.92</v>
+        <v>2.69</v>
       </c>
       <c r="AU476">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV476">
         <v>6</v>
       </c>
       <c r="AW476">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX476">
         <v>6</v>
       </c>
       <c r="AY476">
+        <v>16</v>
+      </c>
+      <c r="AZ476">
+        <v>18</v>
+      </c>
+      <c r="BA476">
+        <v>4</v>
+      </c>
+      <c r="BB476">
+        <v>3</v>
+      </c>
+      <c r="BC476">
         <v>7</v>
       </c>
-      <c r="AZ476">
-        <v>15</v>
-      </c>
-      <c r="BA476">
-        <v>2</v>
-      </c>
-      <c r="BB476">
-        <v>9</v>
-      </c>
-      <c r="BC476">
-        <v>11</v>
-      </c>
       <c r="BD476">
-        <v>2.25</v>
+        <v>1.42</v>
       </c>
       <c r="BE476">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="BF476">
-        <v>1.95</v>
+        <v>3.52</v>
       </c>
       <c r="BG476">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="BH476">
-        <v>5.05</v>
+        <v>4.65</v>
       </c>
       <c r="BI476">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="BJ476">
-        <v>3.35</v>
+        <v>3.14</v>
       </c>
       <c r="BK476">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="BL476">
-        <v>2.51</v>
+        <v>2.41</v>
       </c>
       <c r="BM476">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="BN476">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="BO476">
-        <v>2.21</v>
+        <v>2.3</v>
       </c>
       <c r="BP476">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="477" spans="1:68">
@@ -101330,7 +101330,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>7295719</v>
+        <v>7295720</v>
       </c>
       <c r="C481" t="s">
         <v>68</v>
@@ -101345,190 +101345,190 @@
         <v>0</v>
       </c>
       <c r="G481" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="H481" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="I481">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J481">
         <v>2</v>
       </c>
       <c r="K481">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L481">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M481">
+        <v>2</v>
+      </c>
+      <c r="N481">
         <v>3</v>
       </c>
-      <c r="N481">
-        <v>5</v>
-      </c>
       <c r="O481" t="s">
-        <v>423</v>
+        <v>179</v>
       </c>
       <c r="P481" t="s">
         <v>674</v>
       </c>
       <c r="Q481">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="R481">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="S481">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="T481">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U481">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V481">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W481">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X481">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y481">
+        <v>1.18</v>
+      </c>
+      <c r="Z481">
+        <v>1.68</v>
+      </c>
+      <c r="AA481">
+        <v>4.4</v>
+      </c>
+      <c r="AB481">
+        <v>4</v>
+      </c>
+      <c r="AC481">
+        <v>1.01</v>
+      </c>
+      <c r="AD481">
+        <v>17</v>
+      </c>
+      <c r="AE481">
         <v>1.14</v>
       </c>
-      <c r="Z481">
+      <c r="AF481">
+        <v>6</v>
+      </c>
+      <c r="AG481">
+        <v>1.4</v>
+      </c>
+      <c r="AH481">
+        <v>2.82</v>
+      </c>
+      <c r="AI481">
+        <v>1.44</v>
+      </c>
+      <c r="AJ481">
+        <v>2.63</v>
+      </c>
+      <c r="AK481">
+        <v>1.25</v>
+      </c>
+      <c r="AL481">
+        <v>1.18</v>
+      </c>
+      <c r="AM481">
         <v>2.15</v>
       </c>
-      <c r="AA481">
-        <v>3.7</v>
-      </c>
-      <c r="AB481">
-        <v>3</v>
-      </c>
-      <c r="AC481">
-        <v>0</v>
-      </c>
-      <c r="AD481">
-        <v>0</v>
-      </c>
-      <c r="AE481">
-        <v>0</v>
-      </c>
-      <c r="AF481">
-        <v>0</v>
-      </c>
-      <c r="AG481">
-        <v>1.55</v>
-      </c>
-      <c r="AH481">
-        <v>2.3</v>
-      </c>
-      <c r="AI481">
-        <v>1.5</v>
-      </c>
-      <c r="AJ481">
-        <v>2.5</v>
-      </c>
-      <c r="AK481">
-        <v>0</v>
-      </c>
-      <c r="AL481">
-        <v>0</v>
-      </c>
-      <c r="AM481">
-        <v>0</v>
-      </c>
       <c r="AN481">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AO481">
-        <v>1.81</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP481">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="AQ481">
-        <v>1.83</v>
+        <v>1.05</v>
       </c>
       <c r="AR481">
-        <v>1.69</v>
+        <v>1.51</v>
       </c>
       <c r="AS481">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AT481">
-        <v>3.06</v>
+        <v>2.87</v>
       </c>
       <c r="AU481">
+        <v>10</v>
+      </c>
+      <c r="AV481">
+        <v>5</v>
+      </c>
+      <c r="AW481">
+        <v>10</v>
+      </c>
+      <c r="AX481">
+        <v>2</v>
+      </c>
+      <c r="AY481">
+        <v>22</v>
+      </c>
+      <c r="AZ481">
         <v>8</v>
       </c>
-      <c r="AV481">
-        <v>7</v>
-      </c>
-      <c r="AW481">
-        <v>5</v>
-      </c>
-      <c r="AX481">
-        <v>7</v>
-      </c>
-      <c r="AY481">
-        <v>14</v>
-      </c>
-      <c r="AZ481">
-        <v>20</v>
-      </c>
       <c r="BA481">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB481">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC481">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BD481">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="BE481">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="BF481">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="BG481">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="BH481">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="BI481">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="BJ481">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="BK481">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="BL481">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="BM481">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="BN481">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="BO481">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BP481">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="482" spans="1:68">
@@ -101536,7 +101536,7 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>7295720</v>
+        <v>7295715</v>
       </c>
       <c r="C482" t="s">
         <v>68</v>
@@ -101551,190 +101551,190 @@
         <v>0</v>
       </c>
       <c r="G482" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H482" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="I482">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J482">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K482">
+        <v>0</v>
+      </c>
+      <c r="L482">
+        <v>0</v>
+      </c>
+      <c r="M482">
         <v>3</v>
-      </c>
-      <c r="L482">
-        <v>1</v>
-      </c>
-      <c r="M482">
-        <v>2</v>
       </c>
       <c r="N482">
         <v>3</v>
       </c>
       <c r="O482" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="P482" t="s">
         <v>675</v>
       </c>
       <c r="Q482">
+        <v>2.6</v>
+      </c>
+      <c r="R482">
+        <v>2.3</v>
+      </c>
+      <c r="S482">
+        <v>3.75</v>
+      </c>
+      <c r="T482">
+        <v>1.33</v>
+      </c>
+      <c r="U482">
+        <v>3.25</v>
+      </c>
+      <c r="V482">
+        <v>2.5</v>
+      </c>
+      <c r="W482">
+        <v>1.5</v>
+      </c>
+      <c r="X482">
+        <v>6.5</v>
+      </c>
+      <c r="Y482">
+        <v>1.11</v>
+      </c>
+      <c r="Z482">
+        <v>2</v>
+      </c>
+      <c r="AA482">
+        <v>3.6</v>
+      </c>
+      <c r="AB482">
+        <v>3.3</v>
+      </c>
+      <c r="AC482">
+        <v>1.04</v>
+      </c>
+      <c r="AD482">
+        <v>13</v>
+      </c>
+      <c r="AE482">
+        <v>1.25</v>
+      </c>
+      <c r="AF482">
+        <v>4</v>
+      </c>
+      <c r="AG482">
+        <v>1.73</v>
+      </c>
+      <c r="AH482">
+        <v>2</v>
+      </c>
+      <c r="AI482">
+        <v>1.62</v>
+      </c>
+      <c r="AJ482">
+        <v>2.2</v>
+      </c>
+      <c r="AK482">
+        <v>1.33</v>
+      </c>
+      <c r="AL482">
+        <v>1.25</v>
+      </c>
+      <c r="AM482">
+        <v>1.78</v>
+      </c>
+      <c r="AN482">
+        <v>1.19</v>
+      </c>
+      <c r="AO482">
+        <v>0.75</v>
+      </c>
+      <c r="AP482">
+        <v>1.12</v>
+      </c>
+      <c r="AQ482">
+        <v>0.88</v>
+      </c>
+      <c r="AR482">
+        <v>1.38</v>
+      </c>
+      <c r="AS482">
+        <v>1.04</v>
+      </c>
+      <c r="AT482">
+        <v>2.42</v>
+      </c>
+      <c r="AU482">
+        <v>7</v>
+      </c>
+      <c r="AV482">
+        <v>7</v>
+      </c>
+      <c r="AW482">
+        <v>3</v>
+      </c>
+      <c r="AX482">
+        <v>5</v>
+      </c>
+      <c r="AY482">
+        <v>13</v>
+      </c>
+      <c r="AZ482">
+        <v>18</v>
+      </c>
+      <c r="BA482">
+        <v>4</v>
+      </c>
+      <c r="BB482">
+        <v>6</v>
+      </c>
+      <c r="BC482">
+        <v>10</v>
+      </c>
+      <c r="BD482">
+        <v>1.72</v>
+      </c>
+      <c r="BE482">
+        <v>6.4</v>
+      </c>
+      <c r="BF482">
+        <v>2.23</v>
+      </c>
+      <c r="BG482">
+        <v>1.29</v>
+      </c>
+      <c r="BH482">
+        <v>3.2</v>
+      </c>
+      <c r="BI482">
+        <v>1.49</v>
+      </c>
+      <c r="BJ482">
+        <v>2.4</v>
+      </c>
+      <c r="BK482">
+        <v>1.81</v>
+      </c>
+      <c r="BL482">
+        <v>1.88</v>
+      </c>
+      <c r="BM482">
         <v>2.25</v>
       </c>
-      <c r="R482">
-        <v>2.6</v>
-      </c>
-      <c r="S482">
-        <v>4</v>
-      </c>
-      <c r="T482">
-        <v>1.25</v>
-      </c>
-      <c r="U482">
-        <v>3.75</v>
-      </c>
-      <c r="V482">
-        <v>2.1</v>
-      </c>
-      <c r="W482">
-        <v>1.67</v>
-      </c>
-      <c r="X482">
-        <v>4.5</v>
-      </c>
-      <c r="Y482">
-        <v>1.18</v>
-      </c>
-      <c r="Z482">
-        <v>1.68</v>
-      </c>
-      <c r="AA482">
-        <v>4.4</v>
-      </c>
-      <c r="AB482">
-        <v>4</v>
-      </c>
-      <c r="AC482">
-        <v>1.01</v>
-      </c>
-      <c r="AD482">
-        <v>17</v>
-      </c>
-      <c r="AE482">
-        <v>1.14</v>
-      </c>
-      <c r="AF482">
-        <v>6</v>
-      </c>
-      <c r="AG482">
-        <v>1.4</v>
-      </c>
-      <c r="AH482">
-        <v>2.82</v>
-      </c>
-      <c r="AI482">
-        <v>1.44</v>
-      </c>
-      <c r="AJ482">
-        <v>2.63</v>
-      </c>
-      <c r="AK482">
-        <v>1.25</v>
-      </c>
-      <c r="AL482">
-        <v>1.18</v>
-      </c>
-      <c r="AM482">
-        <v>2.15</v>
-      </c>
-      <c r="AN482">
-        <v>1.56</v>
-      </c>
-      <c r="AO482">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AP482">
-        <v>1.52</v>
-      </c>
-      <c r="AQ482">
-        <v>1.05</v>
-      </c>
-      <c r="AR482">
-        <v>1.51</v>
-      </c>
-      <c r="AS482">
-        <v>1.36</v>
-      </c>
-      <c r="AT482">
-        <v>2.87</v>
-      </c>
-      <c r="AU482">
-        <v>10</v>
-      </c>
-      <c r="AV482">
-        <v>5</v>
-      </c>
-      <c r="AW482">
-        <v>10</v>
-      </c>
-      <c r="AX482">
-        <v>2</v>
-      </c>
-      <c r="AY482">
-        <v>22</v>
-      </c>
-      <c r="AZ482">
-        <v>8</v>
-      </c>
-      <c r="BA482">
-        <v>1</v>
-      </c>
-      <c r="BB482">
-        <v>1</v>
-      </c>
-      <c r="BC482">
-        <v>2</v>
-      </c>
-      <c r="BD482">
-        <v>1.47</v>
-      </c>
-      <c r="BE482">
-        <v>6.5</v>
-      </c>
-      <c r="BF482">
-        <v>2.8</v>
-      </c>
-      <c r="BG482">
-        <v>1.24</v>
-      </c>
-      <c r="BH482">
-        <v>3.55</v>
-      </c>
-      <c r="BI482">
-        <v>1.4</v>
-      </c>
-      <c r="BJ482">
-        <v>2.65</v>
-      </c>
-      <c r="BK482">
-        <v>1.67</v>
-      </c>
-      <c r="BL482">
-        <v>2.05</v>
-      </c>
-      <c r="BM482">
-        <v>2.06</v>
-      </c>
       <c r="BN482">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="BO482">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="BP482">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="483" spans="1:68">
@@ -101742,7 +101742,7 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>7295718</v>
+        <v>7295716</v>
       </c>
       <c r="C483" t="s">
         <v>68</v>
@@ -101757,43 +101757,43 @@
         <v>0</v>
       </c>
       <c r="G483" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="H483" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="I483">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J483">
         <v>0</v>
       </c>
       <c r="K483">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L483">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M483">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N483">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O483" t="s">
-        <v>424</v>
+        <v>104</v>
       </c>
       <c r="P483" t="s">
-        <v>104</v>
+        <v>676</v>
       </c>
       <c r="Q483">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="R483">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S483">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="T483">
         <v>1.25</v>
@@ -101802,31 +101802,31 @@
         <v>3.75</v>
       </c>
       <c r="V483">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W483">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X483">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y483">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Z483">
-        <v>2.75</v>
+        <v>1.82</v>
       </c>
       <c r="AA483">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AB483">
-        <v>2.25</v>
+        <v>3.7</v>
       </c>
       <c r="AC483">
         <v>1.02</v>
       </c>
       <c r="AD483">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE483">
         <v>1.18</v>
@@ -101835,112 +101835,112 @@
         <v>5</v>
       </c>
       <c r="AG483">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AH483">
-        <v>2.54</v>
+        <v>2.63</v>
       </c>
       <c r="AI483">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AJ483">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AK483">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="AL483">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AM483">
-        <v>1.47</v>
+        <v>1.95</v>
       </c>
       <c r="AN483">
-        <v>1.63</v>
+        <v>1.06</v>
       </c>
       <c r="AO483">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AP483">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AQ483">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AR483">
-        <v>1.34</v>
+        <v>1.59</v>
       </c>
       <c r="AS483">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AT483">
-        <v>2.52</v>
+        <v>2.84</v>
       </c>
       <c r="AU483">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV483">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW483">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX483">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY483">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AZ483">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA483">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BB483">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BC483">
         <v>11</v>
       </c>
       <c r="BD483">
-        <v>1.98</v>
+        <v>1.58</v>
       </c>
       <c r="BE483">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="BF483">
-        <v>1.91</v>
+        <v>2.45</v>
       </c>
       <c r="BG483">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="BH483">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="BI483">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="BJ483">
+        <v>2.48</v>
+      </c>
+      <c r="BK483">
+        <v>1.74</v>
+      </c>
+      <c r="BL483">
+        <v>1.95</v>
+      </c>
+      <c r="BM483">
         <v>2.17</v>
       </c>
-      <c r="BK483">
-        <v>1.98</v>
-      </c>
-      <c r="BL483">
-        <v>1.72</v>
-      </c>
-      <c r="BM483">
-        <v>2.5</v>
-      </c>
       <c r="BN483">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="BO483">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="BP483">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="484" spans="1:68">
@@ -101948,7 +101948,7 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>7295721</v>
+        <v>7295717</v>
       </c>
       <c r="C484" t="s">
         <v>68</v>
@@ -101963,190 +101963,190 @@
         <v>0</v>
       </c>
       <c r="G484" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H484" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K484">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L484">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M484">
         <v>2</v>
       </c>
       <c r="N484">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O484" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P484" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Q484">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="R484">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="S484">
+        <v>6</v>
+      </c>
+      <c r="T484">
+        <v>1.18</v>
+      </c>
+      <c r="U484">
+        <v>4.5</v>
+      </c>
+      <c r="V484">
+        <v>1.83</v>
+      </c>
+      <c r="W484">
+        <v>1.83</v>
+      </c>
+      <c r="X484">
         <v>3.75</v>
       </c>
-      <c r="T484">
-        <v>1.22</v>
-      </c>
-      <c r="U484">
+      <c r="Y484">
+        <v>1.25</v>
+      </c>
+      <c r="Z484">
+        <v>1.37</v>
+      </c>
+      <c r="AA484">
+        <v>5.25</v>
+      </c>
+      <c r="AB484">
+        <v>6.75</v>
+      </c>
+      <c r="AC484">
+        <v>0</v>
+      </c>
+      <c r="AD484">
+        <v>0</v>
+      </c>
+      <c r="AE484">
+        <v>0</v>
+      </c>
+      <c r="AF484">
+        <v>0</v>
+      </c>
+      <c r="AG484">
+        <v>1.34</v>
+      </c>
+      <c r="AH484">
+        <v>3.09</v>
+      </c>
+      <c r="AI484">
+        <v>1.53</v>
+      </c>
+      <c r="AJ484">
+        <v>2.38</v>
+      </c>
+      <c r="AK484">
+        <v>0</v>
+      </c>
+      <c r="AL484">
+        <v>0</v>
+      </c>
+      <c r="AM484">
+        <v>0</v>
+      </c>
+      <c r="AN484">
+        <v>2.13</v>
+      </c>
+      <c r="AO484">
+        <v>0.75</v>
+      </c>
+      <c r="AP484">
+        <v>2.11</v>
+      </c>
+      <c r="AQ484">
+        <v>0.71</v>
+      </c>
+      <c r="AR484">
+        <v>1.51</v>
+      </c>
+      <c r="AS484">
+        <v>1.27</v>
+      </c>
+      <c r="AT484">
+        <v>2.78</v>
+      </c>
+      <c r="AU484">
+        <v>12</v>
+      </c>
+      <c r="AV484">
+        <v>5</v>
+      </c>
+      <c r="AW484">
+        <v>8</v>
+      </c>
+      <c r="AX484">
         <v>4</v>
       </c>
-      <c r="V484">
-        <v>2.1</v>
-      </c>
-      <c r="W484">
-        <v>1.67</v>
-      </c>
-      <c r="X484">
-        <v>4.5</v>
-      </c>
-      <c r="Y484">
-        <v>1.18</v>
-      </c>
-      <c r="Z484">
-        <v>1.98</v>
-      </c>
-      <c r="AA484">
-        <v>3.9</v>
-      </c>
-      <c r="AB484">
-        <v>3.25</v>
-      </c>
-      <c r="AC484">
-        <v>1.01</v>
-      </c>
-      <c r="AD484">
-        <v>23</v>
-      </c>
-      <c r="AE484">
-        <v>1.14</v>
-      </c>
-      <c r="AF484">
-        <v>6</v>
-      </c>
-      <c r="AG484">
-        <v>1.43</v>
-      </c>
-      <c r="AH484">
-        <v>2.7</v>
-      </c>
-      <c r="AI484">
-        <v>1.44</v>
-      </c>
-      <c r="AJ484">
-        <v>2.63</v>
-      </c>
-      <c r="AK484">
-        <v>1.32</v>
-      </c>
-      <c r="AL484">
-        <v>1.2</v>
-      </c>
-      <c r="AM484">
-        <v>1.9</v>
-      </c>
-      <c r="AN484">
-        <v>1.06</v>
-      </c>
-      <c r="AO484">
-        <v>2</v>
-      </c>
-      <c r="AP484">
-        <v>1</v>
-      </c>
-      <c r="AQ484">
-        <v>1.94</v>
-      </c>
-      <c r="AR484">
-        <v>1.74</v>
-      </c>
-      <c r="AS484">
-        <v>1.37</v>
-      </c>
-      <c r="AT484">
-        <v>3.11</v>
-      </c>
-      <c r="AU484">
-        <v>5</v>
-      </c>
-      <c r="AV484">
-        <v>6</v>
-      </c>
-      <c r="AW484">
-        <v>3</v>
-      </c>
-      <c r="AX484">
-        <v>3</v>
-      </c>
       <c r="AY484">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AZ484">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA484">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BB484">
         <v>1</v>
       </c>
       <c r="BC484">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BD484">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="BE484">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="BF484">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="BG484">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="BH484">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="BI484">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="BJ484">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="BK484">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="BL484">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BM484">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="BN484">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="BO484">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="BP484">
-        <v>1.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:68">
@@ -102154,7 +102154,7 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>7295716</v>
+        <v>7295718</v>
       </c>
       <c r="C485" t="s">
         <v>68</v>
@@ -102169,43 +102169,43 @@
         <v>0</v>
       </c>
       <c r="G485" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="H485" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="I485">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J485">
         <v>0</v>
       </c>
       <c r="K485">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L485">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M485">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N485">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O485" t="s">
+        <v>424</v>
+      </c>
+      <c r="P485" t="s">
         <v>104</v>
       </c>
-      <c r="P485" t="s">
-        <v>677</v>
-      </c>
       <c r="Q485">
+        <v>3.25</v>
+      </c>
+      <c r="R485">
         <v>2.4</v>
       </c>
-      <c r="R485">
-        <v>2.5</v>
-      </c>
       <c r="S485">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="T485">
         <v>1.25</v>
@@ -102214,31 +102214,31 @@
         <v>3.75</v>
       </c>
       <c r="V485">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W485">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X485">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y485">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Z485">
-        <v>1.82</v>
+        <v>2.75</v>
       </c>
       <c r="AA485">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AB485">
-        <v>3.7</v>
+        <v>2.25</v>
       </c>
       <c r="AC485">
         <v>1.02</v>
       </c>
       <c r="AD485">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE485">
         <v>1.18</v>
@@ -102247,112 +102247,112 @@
         <v>5</v>
       </c>
       <c r="AG485">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AH485">
+        <v>2.54</v>
+      </c>
+      <c r="AI485">
+        <v>1.44</v>
+      </c>
+      <c r="AJ485">
         <v>2.63</v>
       </c>
-      <c r="AI485">
-        <v>1.5</v>
-      </c>
-      <c r="AJ485">
-        <v>2.5</v>
-      </c>
       <c r="AK485">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="AL485">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM485">
-        <v>1.95</v>
+        <v>1.47</v>
       </c>
       <c r="AN485">
+        <v>1.63</v>
+      </c>
+      <c r="AO485">
         <v>1.06</v>
       </c>
-      <c r="AO485">
-        <v>1</v>
-      </c>
       <c r="AP485">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ485">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AR485">
-        <v>1.59</v>
+        <v>1.34</v>
       </c>
       <c r="AS485">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT485">
-        <v>2.84</v>
+        <v>2.52</v>
       </c>
       <c r="AU485">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV485">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AW485">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX485">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY485">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AZ485">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA485">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BB485">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BC485">
         <v>11</v>
       </c>
       <c r="BD485">
+        <v>1.98</v>
+      </c>
+      <c r="BE485">
+        <v>6.1</v>
+      </c>
+      <c r="BF485">
+        <v>1.91</v>
+      </c>
+      <c r="BG485">
+        <v>1.35</v>
+      </c>
+      <c r="BH485">
+        <v>2.9</v>
+      </c>
+      <c r="BI485">
         <v>1.58</v>
       </c>
-      <c r="BE485">
-        <v>6.4</v>
-      </c>
-      <c r="BF485">
-        <v>2.45</v>
-      </c>
-      <c r="BG485">
-        <v>1.26</v>
-      </c>
-      <c r="BH485">
-        <v>3.4</v>
-      </c>
-      <c r="BI485">
-        <v>1.47</v>
-      </c>
       <c r="BJ485">
-        <v>2.48</v>
+        <v>2.17</v>
       </c>
       <c r="BK485">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="BL485">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="BM485">
-        <v>2.17</v>
+        <v>2.5</v>
       </c>
       <c r="BN485">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="BO485">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="BP485">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="486" spans="1:68">
@@ -102360,7 +102360,7 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>7295715</v>
+        <v>7295719</v>
       </c>
       <c r="C486" t="s">
         <v>68</v>
@@ -102375,190 +102375,190 @@
         <v>0</v>
       </c>
       <c r="G486" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H486" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I486">
         <v>0</v>
       </c>
       <c r="J486">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K486">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L486">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M486">
         <v>3</v>
       </c>
       <c r="N486">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O486" t="s">
-        <v>104</v>
+        <v>425</v>
       </c>
       <c r="P486" t="s">
         <v>678</v>
       </c>
       <c r="Q486">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R486">
+        <v>2.38</v>
+      </c>
+      <c r="S486">
+        <v>3.2</v>
+      </c>
+      <c r="T486">
+        <v>1.29</v>
+      </c>
+      <c r="U486">
+        <v>3.5</v>
+      </c>
+      <c r="V486">
+        <v>2.25</v>
+      </c>
+      <c r="W486">
+        <v>1.57</v>
+      </c>
+      <c r="X486">
+        <v>5.5</v>
+      </c>
+      <c r="Y486">
+        <v>1.14</v>
+      </c>
+      <c r="Z486">
+        <v>2.15</v>
+      </c>
+      <c r="AA486">
+        <v>3.7</v>
+      </c>
+      <c r="AB486">
+        <v>3</v>
+      </c>
+      <c r="AC486">
+        <v>0</v>
+      </c>
+      <c r="AD486">
+        <v>0</v>
+      </c>
+      <c r="AE486">
+        <v>0</v>
+      </c>
+      <c r="AF486">
+        <v>0</v>
+      </c>
+      <c r="AG486">
+        <v>1.55</v>
+      </c>
+      <c r="AH486">
         <v>2.3</v>
       </c>
-      <c r="S486">
-        <v>3.75</v>
-      </c>
-      <c r="T486">
-        <v>1.33</v>
-      </c>
-      <c r="U486">
-        <v>3.25</v>
-      </c>
-      <c r="V486">
+      <c r="AI486">
+        <v>1.5</v>
+      </c>
+      <c r="AJ486">
         <v>2.5</v>
       </c>
-      <c r="W486">
-        <v>1.5</v>
-      </c>
-      <c r="X486">
-        <v>6.5</v>
-      </c>
-      <c r="Y486">
-        <v>1.11</v>
-      </c>
-      <c r="Z486">
-        <v>2</v>
-      </c>
-      <c r="AA486">
-        <v>3.6</v>
-      </c>
-      <c r="AB486">
-        <v>3.3</v>
-      </c>
-      <c r="AC486">
-        <v>1.04</v>
-      </c>
-      <c r="AD486">
-        <v>13</v>
-      </c>
-      <c r="AE486">
-        <v>1.25</v>
-      </c>
-      <c r="AF486">
-        <v>4</v>
-      </c>
-      <c r="AG486">
-        <v>1.73</v>
-      </c>
-      <c r="AH486">
-        <v>2</v>
-      </c>
-      <c r="AI486">
-        <v>1.62</v>
-      </c>
-      <c r="AJ486">
-        <v>2.2</v>
-      </c>
       <c r="AK486">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AL486">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AM486">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AN486">
-        <v>1.19</v>
+        <v>1.75</v>
       </c>
       <c r="AO486">
-        <v>0.75</v>
+        <v>1.81</v>
       </c>
       <c r="AP486">
-        <v>1.12</v>
+        <v>1.61</v>
       </c>
       <c r="AQ486">
-        <v>0.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR486">
-        <v>1.38</v>
+        <v>1.69</v>
       </c>
       <c r="AS486">
-        <v>1.04</v>
+        <v>1.37</v>
       </c>
       <c r="AT486">
-        <v>2.42</v>
+        <v>3.06</v>
       </c>
       <c r="AU486">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV486">
         <v>7</v>
       </c>
       <c r="AW486">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX486">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY486">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ486">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA486">
         <v>4</v>
       </c>
       <c r="BB486">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC486">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD486">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="BE486">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="BF486">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="BG486">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="BH486">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="BI486">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="BJ486">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="BK486">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="BL486">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="BM486">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="BN486">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="BO486">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="BP486">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:68">
@@ -102566,7 +102566,7 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>7295717</v>
+        <v>7295721</v>
       </c>
       <c r="C487" t="s">
         <v>68</v>
@@ -102581,28 +102581,28 @@
         <v>0</v>
       </c>
       <c r="G487" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H487" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I487">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J487">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K487">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L487">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M487">
         <v>2</v>
       </c>
       <c r="N487">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O487" t="s">
         <v>426</v>
@@ -102611,160 +102611,160 @@
         <v>679</v>
       </c>
       <c r="Q487">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="R487">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="S487">
+        <v>3.75</v>
+      </c>
+      <c r="T487">
+        <v>1.22</v>
+      </c>
+      <c r="U487">
+        <v>4</v>
+      </c>
+      <c r="V487">
+        <v>2.1</v>
+      </c>
+      <c r="W487">
+        <v>1.67</v>
+      </c>
+      <c r="X487">
+        <v>4.5</v>
+      </c>
+      <c r="Y487">
+        <v>1.18</v>
+      </c>
+      <c r="Z487">
+        <v>1.98</v>
+      </c>
+      <c r="AA487">
+        <v>3.9</v>
+      </c>
+      <c r="AB487">
+        <v>3.25</v>
+      </c>
+      <c r="AC487">
+        <v>1.01</v>
+      </c>
+      <c r="AD487">
+        <v>23</v>
+      </c>
+      <c r="AE487">
+        <v>1.14</v>
+      </c>
+      <c r="AF487">
         <v>6</v>
       </c>
-      <c r="T487">
-        <v>1.18</v>
-      </c>
-      <c r="U487">
-        <v>4.5</v>
-      </c>
-      <c r="V487">
-        <v>1.83</v>
-      </c>
-      <c r="W487">
-        <v>1.83</v>
-      </c>
-      <c r="X487">
-        <v>3.75</v>
-      </c>
-      <c r="Y487">
-        <v>1.25</v>
-      </c>
-      <c r="Z487">
+      <c r="AG487">
+        <v>1.43</v>
+      </c>
+      <c r="AH487">
+        <v>2.7</v>
+      </c>
+      <c r="AI487">
+        <v>1.44</v>
+      </c>
+      <c r="AJ487">
+        <v>2.63</v>
+      </c>
+      <c r="AK487">
+        <v>1.32</v>
+      </c>
+      <c r="AL487">
+        <v>1.2</v>
+      </c>
+      <c r="AM487">
+        <v>1.9</v>
+      </c>
+      <c r="AN487">
+        <v>1.06</v>
+      </c>
+      <c r="AO487">
+        <v>2</v>
+      </c>
+      <c r="AP487">
+        <v>1</v>
+      </c>
+      <c r="AQ487">
+        <v>1.94</v>
+      </c>
+      <c r="AR487">
+        <v>1.74</v>
+      </c>
+      <c r="AS487">
         <v>1.37</v>
       </c>
-      <c r="AA487">
-        <v>5.25</v>
-      </c>
-      <c r="AB487">
-        <v>6.75</v>
-      </c>
-      <c r="AC487">
-        <v>0</v>
-      </c>
-      <c r="AD487">
-        <v>0</v>
-      </c>
-      <c r="AE487">
-        <v>0</v>
-      </c>
-      <c r="AF487">
-        <v>0</v>
-      </c>
-      <c r="AG487">
-        <v>1.34</v>
-      </c>
-      <c r="AH487">
-        <v>3.09</v>
-      </c>
-      <c r="AI487">
-        <v>1.53</v>
-      </c>
-      <c r="AJ487">
-        <v>2.38</v>
-      </c>
-      <c r="AK487">
-        <v>0</v>
-      </c>
-      <c r="AL487">
-        <v>0</v>
-      </c>
-      <c r="AM487">
-        <v>0</v>
-      </c>
-      <c r="AN487">
-        <v>2.13</v>
-      </c>
-      <c r="AO487">
-        <v>0.75</v>
-      </c>
-      <c r="AP487">
-        <v>2.11</v>
-      </c>
-      <c r="AQ487">
-        <v>0.71</v>
-      </c>
-      <c r="AR487">
-        <v>1.51</v>
-      </c>
-      <c r="AS487">
-        <v>1.27</v>
-      </c>
       <c r="AT487">
-        <v>2.78</v>
+        <v>3.11</v>
       </c>
       <c r="AU487">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV487">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW487">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX487">
+        <v>3</v>
+      </c>
+      <c r="AY487">
+        <v>15</v>
+      </c>
+      <c r="AZ487">
+        <v>13</v>
+      </c>
+      <c r="BA487">
+        <v>3</v>
+      </c>
+      <c r="BB487">
+        <v>1</v>
+      </c>
+      <c r="BC487">
         <v>4</v>
       </c>
-      <c r="AY487">
-        <v>25</v>
-      </c>
-      <c r="AZ487">
-        <v>9</v>
-      </c>
-      <c r="BA487">
-        <v>10</v>
-      </c>
-      <c r="BB487">
-        <v>1</v>
-      </c>
-      <c r="BC487">
-        <v>11</v>
-      </c>
       <c r="BD487">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BE487">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BF487">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="BG487">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="BH487">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="BI487">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="BJ487">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="BK487">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="BL487">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM487">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="BN487">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BO487">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="BP487">
-        <v>0</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="488" spans="1:68">
@@ -102772,7 +102772,7 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>7295728</v>
+        <v>7295723</v>
       </c>
       <c r="C488" t="s">
         <v>68</v>
@@ -102787,70 +102787,70 @@
         <v>0</v>
       </c>
       <c r="G488" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="H488" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I488">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J488">
         <v>0</v>
       </c>
       <c r="K488">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L488">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M488">
         <v>1</v>
       </c>
       <c r="N488">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O488" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
       <c r="P488" t="s">
-        <v>257</v>
+        <v>162</v>
       </c>
       <c r="Q488">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R488">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S488">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T488">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U488">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V488">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W488">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X488">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y488">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Z488">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="AA488">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AB488">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="AC488">
         <v>0</v>
@@ -102865,16 +102865,16 @@
         <v>0</v>
       </c>
       <c r="AG488">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AH488">
         <v>2.4</v>
       </c>
       <c r="AI488">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AJ488">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AK488">
         <v>0</v>
@@ -102886,52 +102886,52 @@
         <v>0</v>
       </c>
       <c r="AN488">
+        <v>1.81</v>
+      </c>
+      <c r="AO488">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP488">
         <v>1.88</v>
       </c>
-      <c r="AO488">
-        <v>0.88</v>
-      </c>
-      <c r="AP488">
-        <v>1.78</v>
-      </c>
       <c r="AQ488">
-        <v>0.83</v>
+        <v>0.53</v>
       </c>
       <c r="AR488">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AS488">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="AT488">
-        <v>2.79</v>
+        <v>2.73</v>
       </c>
       <c r="AU488">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AV488">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW488">
+        <v>1</v>
+      </c>
+      <c r="AX488">
+        <v>5</v>
+      </c>
+      <c r="AY488">
         <v>4</v>
       </c>
-      <c r="AX488">
-        <v>3</v>
-      </c>
-      <c r="AY488">
-        <v>18</v>
-      </c>
       <c r="AZ488">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BA488">
+        <v>2</v>
+      </c>
+      <c r="BB488">
+        <v>5</v>
+      </c>
+      <c r="BC488">
         <v>7</v>
-      </c>
-      <c r="BB488">
-        <v>2</v>
-      </c>
-      <c r="BC488">
-        <v>9</v>
       </c>
       <c r="BD488">
         <v>0</v>
@@ -103017,7 +103017,7 @@
         <v>3</v>
       </c>
       <c r="O489" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P489" t="s">
         <v>493</v>
@@ -103184,7 +103184,7 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>7295726</v>
+        <v>7295728</v>
       </c>
       <c r="C490" t="s">
         <v>68</v>
@@ -103199,10 +103199,10 @@
         <v>0</v>
       </c>
       <c r="G490" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H490" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I490">
         <v>1</v>
@@ -103214,136 +103214,136 @@
         <v>1</v>
       </c>
       <c r="L490">
+        <v>1</v>
+      </c>
+      <c r="M490">
+        <v>1</v>
+      </c>
+      <c r="N490">
+        <v>2</v>
+      </c>
+      <c r="O490" t="s">
+        <v>201</v>
+      </c>
+      <c r="P490" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q490">
+        <v>2.3</v>
+      </c>
+      <c r="R490">
+        <v>2.4</v>
+      </c>
+      <c r="S490">
+        <v>4.33</v>
+      </c>
+      <c r="T490">
+        <v>1.29</v>
+      </c>
+      <c r="U490">
+        <v>3.5</v>
+      </c>
+      <c r="V490">
+        <v>2.25</v>
+      </c>
+      <c r="W490">
+        <v>1.57</v>
+      </c>
+      <c r="X490">
+        <v>5.5</v>
+      </c>
+      <c r="Y490">
+        <v>1.14</v>
+      </c>
+      <c r="Z490">
+        <v>1.8</v>
+      </c>
+      <c r="AA490">
         <v>4</v>
       </c>
-      <c r="M490">
-        <v>1</v>
-      </c>
-      <c r="N490">
-        <v>5</v>
-      </c>
-      <c r="O490" t="s">
-        <v>428</v>
-      </c>
-      <c r="P490" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q490">
-        <v>2</v>
-      </c>
-      <c r="R490">
-        <v>2.75</v>
-      </c>
-      <c r="S490">
-        <v>4.75</v>
-      </c>
-      <c r="T490">
+      <c r="AB490">
+        <v>4.2</v>
+      </c>
+      <c r="AC490">
+        <v>0</v>
+      </c>
+      <c r="AD490">
+        <v>0</v>
+      </c>
+      <c r="AE490">
+        <v>0</v>
+      </c>
+      <c r="AF490">
+        <v>0</v>
+      </c>
+      <c r="AG490">
+        <v>1.58</v>
+      </c>
+      <c r="AH490">
+        <v>2.4</v>
+      </c>
+      <c r="AI490">
+        <v>1.53</v>
+      </c>
+      <c r="AJ490">
+        <v>2.38</v>
+      </c>
+      <c r="AK490">
+        <v>0</v>
+      </c>
+      <c r="AL490">
+        <v>0</v>
+      </c>
+      <c r="AM490">
+        <v>0</v>
+      </c>
+      <c r="AN490">
+        <v>1.88</v>
+      </c>
+      <c r="AO490">
+        <v>0.88</v>
+      </c>
+      <c r="AP490">
+        <v>1.78</v>
+      </c>
+      <c r="AQ490">
+        <v>0.83</v>
+      </c>
+      <c r="AR490">
+        <v>1.59</v>
+      </c>
+      <c r="AS490">
         <v>1.2</v>
       </c>
-      <c r="U490">
-        <v>4.33</v>
-      </c>
-      <c r="V490">
-        <v>1.91</v>
-      </c>
-      <c r="W490">
-        <v>1.8</v>
-      </c>
-      <c r="X490">
+      <c r="AT490">
+        <v>2.79</v>
+      </c>
+      <c r="AU490">
+        <v>8</v>
+      </c>
+      <c r="AV490">
+        <v>3</v>
+      </c>
+      <c r="AW490">
         <v>4</v>
       </c>
-      <c r="Y490">
-        <v>1.22</v>
-      </c>
-      <c r="Z490">
-        <v>1.53</v>
-      </c>
-      <c r="AA490">
-        <v>5</v>
-      </c>
-      <c r="AB490">
-        <v>5.5</v>
-      </c>
-      <c r="AC490">
-        <v>0</v>
-      </c>
-      <c r="AD490">
-        <v>0</v>
-      </c>
-      <c r="AE490">
-        <v>0</v>
-      </c>
-      <c r="AF490">
-        <v>0</v>
-      </c>
-      <c r="AG490">
-        <v>1.33</v>
-      </c>
-      <c r="AH490">
+      <c r="AX490">
         <v>3</v>
       </c>
-      <c r="AI490">
-        <v>1.44</v>
-      </c>
-      <c r="AJ490">
-        <v>2.63</v>
-      </c>
-      <c r="AK490">
-        <v>0</v>
-      </c>
-      <c r="AL490">
-        <v>0</v>
-      </c>
-      <c r="AM490">
-        <v>0</v>
-      </c>
-      <c r="AN490">
-        <v>1.38</v>
-      </c>
-      <c r="AO490">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AP490">
-        <v>1.44</v>
-      </c>
-      <c r="AQ490">
-        <v>0.65</v>
-      </c>
-      <c r="AR490">
-        <v>1.58</v>
-      </c>
-      <c r="AS490">
-        <v>1.34</v>
-      </c>
-      <c r="AT490">
-        <v>2.92</v>
-      </c>
-      <c r="AU490">
-        <v>6</v>
-      </c>
-      <c r="AV490">
-        <v>5</v>
-      </c>
-      <c r="AW490">
-        <v>6</v>
-      </c>
-      <c r="AX490">
-        <v>4</v>
-      </c>
       <c r="AY490">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ490">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA490">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB490">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC490">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD490">
         <v>0</v>
@@ -103390,7 +103390,7 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>7295722</v>
+        <v>7295726</v>
       </c>
       <c r="C491" t="s">
         <v>68</v>
@@ -103405,25 +103405,25 @@
         <v>0</v>
       </c>
       <c r="G491" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H491" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I491">
         <v>1</v>
       </c>
       <c r="J491">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K491">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L491">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M491">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N491">
         <v>5</v>
@@ -103432,44 +103432,44 @@
         <v>429</v>
       </c>
       <c r="P491" t="s">
-        <v>680</v>
+        <v>111</v>
       </c>
       <c r="Q491">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="R491">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="S491">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="T491">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="U491">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="V491">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="W491">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="X491">
+        <v>4</v>
+      </c>
+      <c r="Y491">
+        <v>1.22</v>
+      </c>
+      <c r="Z491">
+        <v>1.53</v>
+      </c>
+      <c r="AA491">
+        <v>5</v>
+      </c>
+      <c r="AB491">
         <v>5.5</v>
       </c>
-      <c r="Y491">
-        <v>1.14</v>
-      </c>
-      <c r="Z491">
-        <v>2.35</v>
-      </c>
-      <c r="AA491">
-        <v>3.75</v>
-      </c>
-      <c r="AB491">
-        <v>2.85</v>
-      </c>
       <c r="AC491">
         <v>0</v>
       </c>
@@ -103483,10 +103483,10 @@
         <v>0</v>
       </c>
       <c r="AG491">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AH491">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AI491">
         <v>1.44</v>
@@ -103504,52 +103504,52 @@
         <v>0</v>
       </c>
       <c r="AN491">
+        <v>1.38</v>
+      </c>
+      <c r="AO491">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP491">
         <v>1.44</v>
       </c>
-      <c r="AO491">
-        <v>1.06</v>
-      </c>
-      <c r="AP491">
-        <v>1.53</v>
-      </c>
       <c r="AQ491">
-        <v>0.9399999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR491">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="AS491">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AT491">
-        <v>2.6</v>
+        <v>2.92</v>
       </c>
       <c r="AU491">
         <v>6</v>
       </c>
       <c r="AV491">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AW491">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX491">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY491">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ491">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA491">
         <v>5</v>
       </c>
       <c r="BB491">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC491">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD491">
         <v>0</v>
@@ -103596,7 +103596,7 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>7295724</v>
+        <v>7295722</v>
       </c>
       <c r="C492" t="s">
         <v>68</v>
@@ -103611,70 +103611,70 @@
         <v>0</v>
       </c>
       <c r="G492" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H492" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I492">
         <v>1</v>
       </c>
       <c r="J492">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K492">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L492">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M492">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N492">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O492" t="s">
         <v>430</v>
       </c>
       <c r="P492" t="s">
-        <v>475</v>
+        <v>680</v>
       </c>
       <c r="Q492">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R492">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S492">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T492">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="U492">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="V492">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W492">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="X492">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y492">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="Z492">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="AA492">
         <v>3.75</v>
       </c>
       <c r="AB492">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="AC492">
         <v>0</v>
@@ -103683,22 +103683,22 @@
         <v>0</v>
       </c>
       <c r="AE492">
-        <v>3.41</v>
+        <v>0</v>
       </c>
       <c r="AF492">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AG492">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AH492">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="AI492">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AJ492">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AK492">
         <v>0</v>
@@ -103710,52 +103710,52 @@
         <v>0</v>
       </c>
       <c r="AN492">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="AO492">
-        <v>1.38</v>
+        <v>1.06</v>
       </c>
       <c r="AP492">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AQ492">
-        <v>1.39</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR492">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="AS492">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT492">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="AU492">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV492">
         <v>8</v>
       </c>
       <c r="AW492">
+        <v>5</v>
+      </c>
+      <c r="AX492">
+        <v>1</v>
+      </c>
+      <c r="AY492">
+        <v>17</v>
+      </c>
+      <c r="AZ492">
+        <v>11</v>
+      </c>
+      <c r="BA492">
+        <v>5</v>
+      </c>
+      <c r="BB492">
         <v>4</v>
       </c>
-      <c r="AX492">
-        <v>5</v>
-      </c>
-      <c r="AY492">
-        <v>16</v>
-      </c>
-      <c r="AZ492">
-        <v>18</v>
-      </c>
-      <c r="BA492">
+      <c r="BC492">
         <v>9</v>
-      </c>
-      <c r="BB492">
-        <v>5</v>
-      </c>
-      <c r="BC492">
-        <v>14</v>
       </c>
       <c r="BD492">
         <v>0</v>
@@ -103802,7 +103802,7 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>7295723</v>
+        <v>7295724</v>
       </c>
       <c r="C493" t="s">
         <v>68</v>
@@ -103817,19 +103817,19 @@
         <v>0</v>
       </c>
       <c r="G493" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H493" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J493">
         <v>0</v>
       </c>
       <c r="K493">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L493">
         <v>2</v>
@@ -103844,43 +103844,43 @@
         <v>431</v>
       </c>
       <c r="P493" t="s">
-        <v>162</v>
+        <v>475</v>
       </c>
       <c r="Q493">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="R493">
         <v>2.5</v>
       </c>
       <c r="S493">
+        <v>3.4</v>
+      </c>
+      <c r="T493">
+        <v>1.22</v>
+      </c>
+      <c r="U493">
         <v>4</v>
       </c>
-      <c r="T493">
-        <v>1.25</v>
-      </c>
-      <c r="U493">
+      <c r="V493">
+        <v>2.1</v>
+      </c>
+      <c r="W493">
+        <v>1.67</v>
+      </c>
+      <c r="X493">
+        <v>4.5</v>
+      </c>
+      <c r="Y493">
+        <v>1.18</v>
+      </c>
+      <c r="Z493">
+        <v>2.15</v>
+      </c>
+      <c r="AA493">
         <v>3.75</v>
       </c>
-      <c r="V493">
-        <v>2.2</v>
-      </c>
-      <c r="W493">
-        <v>1.62</v>
-      </c>
-      <c r="X493">
-        <v>5</v>
-      </c>
-      <c r="Y493">
-        <v>1.17</v>
-      </c>
-      <c r="Z493">
-        <v>1.87</v>
-      </c>
-      <c r="AA493">
-        <v>4.2</v>
-      </c>
       <c r="AB493">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="AC493">
         <v>0</v>
@@ -103889,22 +103889,22 @@
         <v>0</v>
       </c>
       <c r="AE493">
-        <v>0</v>
+        <v>3.41</v>
       </c>
       <c r="AF493">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AG493">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AH493">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="AI493">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AJ493">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AK493">
         <v>0</v>
@@ -103916,52 +103916,52 @@
         <v>0</v>
       </c>
       <c r="AN493">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AO493">
-        <v>0.5600000000000001</v>
+        <v>1.38</v>
       </c>
       <c r="AP493">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="AQ493">
-        <v>0.53</v>
+        <v>1.39</v>
       </c>
       <c r="AR493">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AS493">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="AT493">
-        <v>2.73</v>
+        <v>3.1</v>
       </c>
       <c r="AU493">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV493">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW493">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX493">
         <v>5</v>
       </c>
       <c r="AY493">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AZ493">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA493">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BB493">
         <v>5</v>
       </c>
       <c r="BC493">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BD493">
         <v>0</v>
@@ -104952,7 +104952,7 @@
         <v>1.47</v>
       </c>
       <c r="AP498">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="AQ498">
         <v>1.39</v>
@@ -105776,7 +105776,7 @@
         <v>1.59</v>
       </c>
       <c r="AP502">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AQ502">
         <v>1.56</v>
@@ -106603,7 +106603,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ506">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="AR506">
         <v>1.44</v>
@@ -107633,7 +107633,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ511">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AR511">
         <v>1.46</v>
@@ -109075,7 +109075,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ518">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="AR518">
         <v>1.66</v>
@@ -109484,7 +109484,7 @@
         <v>1.5</v>
       </c>
       <c r="AP520">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="AQ520">
         <v>1.46</v>
@@ -109769,212 +109769,6 @@
       </c>
       <c r="BP521">
         <v>1.32</v>
-      </c>
-    </row>
-    <row r="522" spans="1:68">
-      <c r="A522" s="1">
-        <v>521</v>
-      </c>
-      <c r="B522">
-        <v>7754137</v>
-      </c>
-      <c r="C522" t="s">
-        <v>68</v>
-      </c>
-      <c r="D522" t="s">
-        <v>69</v>
-      </c>
-      <c r="E522" s="2">
-        <v>45627</v>
-      </c>
-      <c r="F522">
-        <v>0</v>
-      </c>
-      <c r="G522" t="s">
-        <v>84</v>
-      </c>
-      <c r="H522" t="s">
-        <v>92</v>
-      </c>
-      <c r="I522">
-        <v>0</v>
-      </c>
-      <c r="J522">
-        <v>0</v>
-      </c>
-      <c r="K522">
-        <v>0</v>
-      </c>
-      <c r="L522">
-        <v>1</v>
-      </c>
-      <c r="M522">
-        <v>0</v>
-      </c>
-      <c r="N522">
-        <v>1</v>
-      </c>
-      <c r="O522" t="s">
-        <v>244</v>
-      </c>
-      <c r="P522" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q522">
-        <v>2.4</v>
-      </c>
-      <c r="R522">
-        <v>2.3</v>
-      </c>
-      <c r="S522">
-        <v>4.33</v>
-      </c>
-      <c r="T522">
-        <v>1.33</v>
-      </c>
-      <c r="U522">
-        <v>3.25</v>
-      </c>
-      <c r="V522">
-        <v>2.5</v>
-      </c>
-      <c r="W522">
-        <v>1.5</v>
-      </c>
-      <c r="X522">
-        <v>6.5</v>
-      </c>
-      <c r="Y522">
-        <v>1.11</v>
-      </c>
-      <c r="Z522">
-        <v>1.9</v>
-      </c>
-      <c r="AA522">
-        <v>3.41</v>
-      </c>
-      <c r="AB522">
-        <v>3.56</v>
-      </c>
-      <c r="AC522">
-        <v>1.03</v>
-      </c>
-      <c r="AD522">
-        <v>15</v>
-      </c>
-      <c r="AE522">
-        <v>1.22</v>
-      </c>
-      <c r="AF522">
-        <v>4.33</v>
-      </c>
-      <c r="AG522">
-        <v>1.65</v>
-      </c>
-      <c r="AH522">
-        <v>2.1</v>
-      </c>
-      <c r="AI522">
-        <v>1.62</v>
-      </c>
-      <c r="AJ522">
-        <v>2.2</v>
-      </c>
-      <c r="AK522">
-        <v>1.28</v>
-      </c>
-      <c r="AL522">
-        <v>1.22</v>
-      </c>
-      <c r="AM522">
-        <v>1.92</v>
-      </c>
-      <c r="AN522">
-        <v>1.97</v>
-      </c>
-      <c r="AO522">
-        <v>1.68</v>
-      </c>
-      <c r="AP522">
-        <v>2</v>
-      </c>
-      <c r="AQ522">
-        <v>1.63</v>
-      </c>
-      <c r="AR522">
-        <v>1.6</v>
-      </c>
-      <c r="AS522">
-        <v>1.45</v>
-      </c>
-      <c r="AT522">
-        <v>3.05</v>
-      </c>
-      <c r="AU522">
-        <v>6</v>
-      </c>
-      <c r="AV522">
-        <v>5</v>
-      </c>
-      <c r="AW522">
-        <v>3</v>
-      </c>
-      <c r="AX522">
-        <v>1</v>
-      </c>
-      <c r="AY522">
-        <v>14</v>
-      </c>
-      <c r="AZ522">
-        <v>9</v>
-      </c>
-      <c r="BA522">
-        <v>3</v>
-      </c>
-      <c r="BB522">
-        <v>5</v>
-      </c>
-      <c r="BC522">
-        <v>8</v>
-      </c>
-      <c r="BD522">
-        <v>1.7</v>
-      </c>
-      <c r="BE522">
-        <v>6.5</v>
-      </c>
-      <c r="BF522">
-        <v>2.23</v>
-      </c>
-      <c r="BG522">
-        <v>1.2</v>
-      </c>
-      <c r="BH522">
-        <v>3.8</v>
-      </c>
-      <c r="BI522">
-        <v>1.37</v>
-      </c>
-      <c r="BJ522">
-        <v>2.8</v>
-      </c>
-      <c r="BK522">
-        <v>1.61</v>
-      </c>
-      <c r="BL522">
-        <v>2.15</v>
-      </c>
-      <c r="BM522">
-        <v>1.96</v>
-      </c>
-      <c r="BN522">
-        <v>1.73</v>
-      </c>
-      <c r="BO522">
-        <v>2.45</v>
-      </c>
-      <c r="BP522">
-        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="688">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -2439,7 +2439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP521"/>
+  <dimension ref="A1:BP522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3191,7 +3191,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ4">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ16">
         <v>2.06</v>
@@ -13694,7 +13694,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ55">
         <v>0.65</v>
@@ -16787,7 +16787,7 @@
         <v>0.76</v>
       </c>
       <c r="AQ70">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
         <v>1.18</v>
@@ -19462,10 +19462,10 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ83">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR83">
         <v>1.98</v>
@@ -23997,7 +23997,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ105">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR105">
         <v>1.76</v>
@@ -28320,7 +28320,7 @@
         <v>0</v>
       </c>
       <c r="AP126">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ126">
         <v>0.47</v>
@@ -29765,7 +29765,7 @@
         <v>1</v>
       </c>
       <c r="AQ133">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR133">
         <v>1.89</v>
@@ -31413,7 +31413,7 @@
         <v>1</v>
       </c>
       <c r="AQ141">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR141">
         <v>1.56</v>
@@ -36766,7 +36766,7 @@
         <v>1.83</v>
       </c>
       <c r="AP167">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ167">
         <v>1.33</v>
@@ -37181,7 +37181,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ169">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR169">
         <v>1.32</v>
@@ -39653,7 +39653,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ181">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR181">
         <v>1.51</v>
@@ -44597,7 +44597,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ205">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR205">
         <v>1.81</v>
@@ -45624,7 +45624,7 @@
         <v>1.5</v>
       </c>
       <c r="AP210">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ210">
         <v>1.5</v>
@@ -47890,7 +47890,7 @@
         <v>0.33</v>
       </c>
       <c r="AP221">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ221">
         <v>0.53</v>
@@ -51395,7 +51395,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ238">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR238">
         <v>1.43</v>
@@ -54482,7 +54482,7 @@
         <v>0.63</v>
       </c>
       <c r="AP253">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ253">
         <v>0.53</v>
@@ -56339,7 +56339,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ262">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR262">
         <v>1.79</v>
@@ -56954,7 +56954,7 @@
         <v>1.43</v>
       </c>
       <c r="AP265">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ265">
         <v>0.95</v>
@@ -65606,7 +65606,7 @@
         <v>1.22</v>
       </c>
       <c r="AP307">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ307">
         <v>1.5</v>
@@ -68284,7 +68284,7 @@
         <v>1.3</v>
       </c>
       <c r="AP320">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ320">
         <v>1.47</v>
@@ -69523,7 +69523,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ326">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR326">
         <v>1.23</v>
@@ -73228,7 +73228,7 @@
         <v>1.17</v>
       </c>
       <c r="AP344">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ344">
         <v>0.9399999999999999</v>
@@ -76936,7 +76936,7 @@
         <v>1</v>
       </c>
       <c r="AP362">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ362">
         <v>0.83</v>
@@ -77145,7 +77145,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ363">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR363">
         <v>1.57</v>
@@ -79408,7 +79408,7 @@
         <v>0.83</v>
       </c>
       <c r="AP374">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ374">
         <v>1.05</v>
@@ -82089,7 +82089,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ387">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR387">
         <v>1.75</v>
@@ -82707,7 +82707,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ390">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR390">
         <v>1.65</v>
@@ -86412,7 +86412,7 @@
         <v>1.5</v>
       </c>
       <c r="AP408">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ408">
         <v>1.5</v>
@@ -91768,7 +91768,7 @@
         <v>1.67</v>
       </c>
       <c r="AP434">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ434">
         <v>1.32</v>
@@ -97951,7 +97951,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ464">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR464">
         <v>1.63</v>
@@ -100011,7 +100011,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ474">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AR474">
         <v>1.58</v>
@@ -100420,7 +100420,7 @@
         <v>1</v>
       </c>
       <c r="AP476">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="AQ476">
         <v>0.9399999999999999</v>
@@ -104952,7 +104952,7 @@
         <v>1.47</v>
       </c>
       <c r="AP498">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AQ498">
         <v>1.39</v>
@@ -105776,7 +105776,7 @@
         <v>1.59</v>
       </c>
       <c r="AP502">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AQ502">
         <v>1.56</v>
@@ -106603,7 +106603,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ506">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AR506">
         <v>1.44</v>
@@ -107633,7 +107633,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ511">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AR511">
         <v>1.46</v>
@@ -109075,7 +109075,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ518">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AR518">
         <v>1.66</v>
@@ -109484,7 +109484,7 @@
         <v>1.5</v>
       </c>
       <c r="AP520">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AQ520">
         <v>1.46</v>
@@ -109769,6 +109769,212 @@
       </c>
       <c r="BP521">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="522" spans="1:68">
+      <c r="A522" s="1">
+        <v>521</v>
+      </c>
+      <c r="B522">
+        <v>7754137</v>
+      </c>
+      <c r="C522" t="s">
+        <v>68</v>
+      </c>
+      <c r="D522" t="s">
+        <v>69</v>
+      </c>
+      <c r="E522" s="2">
+        <v>45627</v>
+      </c>
+      <c r="F522">
+        <v>0</v>
+      </c>
+      <c r="G522" t="s">
+        <v>84</v>
+      </c>
+      <c r="H522" t="s">
+        <v>92</v>
+      </c>
+      <c r="I522">
+        <v>0</v>
+      </c>
+      <c r="J522">
+        <v>0</v>
+      </c>
+      <c r="K522">
+        <v>0</v>
+      </c>
+      <c r="L522">
+        <v>1</v>
+      </c>
+      <c r="M522">
+        <v>0</v>
+      </c>
+      <c r="N522">
+        <v>1</v>
+      </c>
+      <c r="O522" t="s">
+        <v>244</v>
+      </c>
+      <c r="P522" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q522">
+        <v>2.4</v>
+      </c>
+      <c r="R522">
+        <v>2.3</v>
+      </c>
+      <c r="S522">
+        <v>4.33</v>
+      </c>
+      <c r="T522">
+        <v>1.33</v>
+      </c>
+      <c r="U522">
+        <v>3.25</v>
+      </c>
+      <c r="V522">
+        <v>2.5</v>
+      </c>
+      <c r="W522">
+        <v>1.5</v>
+      </c>
+      <c r="X522">
+        <v>6.5</v>
+      </c>
+      <c r="Y522">
+        <v>1.11</v>
+      </c>
+      <c r="Z522">
+        <v>1.81</v>
+      </c>
+      <c r="AA522">
+        <v>3.55</v>
+      </c>
+      <c r="AB522">
+        <v>4.05</v>
+      </c>
+      <c r="AC522">
+        <v>1.03</v>
+      </c>
+      <c r="AD522">
+        <v>15</v>
+      </c>
+      <c r="AE522">
+        <v>1.22</v>
+      </c>
+      <c r="AF522">
+        <v>4.33</v>
+      </c>
+      <c r="AG522">
+        <v>1.62</v>
+      </c>
+      <c r="AH522">
+        <v>2.15</v>
+      </c>
+      <c r="AI522">
+        <v>1.62</v>
+      </c>
+      <c r="AJ522">
+        <v>2.2</v>
+      </c>
+      <c r="AK522">
+        <v>1.28</v>
+      </c>
+      <c r="AL522">
+        <v>1.22</v>
+      </c>
+      <c r="AM522">
+        <v>1.92</v>
+      </c>
+      <c r="AN522">
+        <v>1.97</v>
+      </c>
+      <c r="AO522">
+        <v>1.68</v>
+      </c>
+      <c r="AP522">
+        <v>2</v>
+      </c>
+      <c r="AQ522">
+        <v>1.63</v>
+      </c>
+      <c r="AR522">
+        <v>1.6</v>
+      </c>
+      <c r="AS522">
+        <v>1.45</v>
+      </c>
+      <c r="AT522">
+        <v>3.05</v>
+      </c>
+      <c r="AU522">
+        <v>6</v>
+      </c>
+      <c r="AV522">
+        <v>5</v>
+      </c>
+      <c r="AW522">
+        <v>3</v>
+      </c>
+      <c r="AX522">
+        <v>1</v>
+      </c>
+      <c r="AY522">
+        <v>14</v>
+      </c>
+      <c r="AZ522">
+        <v>9</v>
+      </c>
+      <c r="BA522">
+        <v>3</v>
+      </c>
+      <c r="BB522">
+        <v>5</v>
+      </c>
+      <c r="BC522">
+        <v>8</v>
+      </c>
+      <c r="BD522">
+        <v>1.7</v>
+      </c>
+      <c r="BE522">
+        <v>6.5</v>
+      </c>
+      <c r="BF522">
+        <v>2.23</v>
+      </c>
+      <c r="BG522">
+        <v>1.2</v>
+      </c>
+      <c r="BH522">
+        <v>3.8</v>
+      </c>
+      <c r="BI522">
+        <v>1.37</v>
+      </c>
+      <c r="BJ522">
+        <v>2.8</v>
+      </c>
+      <c r="BK522">
+        <v>1.61</v>
+      </c>
+      <c r="BL522">
+        <v>2.15</v>
+      </c>
+      <c r="BM522">
+        <v>1.96</v>
+      </c>
+      <c r="BN522">
+        <v>1.73</v>
+      </c>
+      <c r="BO522">
+        <v>2.45</v>
+      </c>
+      <c r="BP522">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -109994,7 +109994,7 @@
         <v>69</v>
       </c>
       <c r="E523" s="2">
-        <v>45633.75</v>
+        <v>45632.875</v>
       </c>
       <c r="F523">
         <v>0</v>
@@ -110135,7 +110135,7 @@
         <v>13</v>
       </c>
       <c r="AZ523">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA523">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/USA MLS_2024.xlsx
@@ -109994,7 +109994,7 @@
         <v>69</v>
       </c>
       <c r="E523" s="2">
-        <v>45632.875</v>
+        <v>45633.75</v>
       </c>
       <c r="F523">
         <v>0</v>
